--- a/chapters/ch08-Transportation/datasets/Transportation_Services_Index_and_Seasonally-Adjusted_Transportation_Data.xlsx
+++ b/chapters/ch08-Transportation/datasets/Transportation_Services_Index_and_Seasonally-Adjusted_Transportation_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4493D45D-BA1B-7D4E-8E23-A39BF1862BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE789F8C-E1FA-594A-9B88-D24D7C38EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23960" yWindow="7600" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="23160" yWindow="7600" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t>ID</t>
   </si>
@@ -1018,11 +1020,17 @@
   <si>
     <t>Passenger_TSI</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1500,11 +1508,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1859,4669 +1868,6484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D259"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D259"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>325</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
         <v>327</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>328</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f>Transportation_Services_Index_a!B2</f>
         <v>36526</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <f>2000 + B2/12</f>
+        <v>2000.0833333333333</v>
+      </c>
+      <c r="D2">
         <f>Transportation_Services_Index_a!AV2</f>
         <v>105.1</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <f>Transportation_Services_Index_a!AX2</f>
         <v>95.1</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <f>Transportation_Services_Index_a!AZ2</f>
         <v>101.7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>Transportation_Services_Index_a!B3</f>
         <v>36557</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C66" si="0">2000 + B3/12</f>
+        <v>2000.1666666666667</v>
+      </c>
+      <c r="D3">
         <f>Transportation_Services_Index_a!AV3</f>
         <v>103.1</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <f>Transportation_Services_Index_a!AX3</f>
         <v>97</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <f>Transportation_Services_Index_a!AZ3</f>
         <v>101.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>Transportation_Services_Index_a!B4</f>
         <v>36586</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.25</v>
+      </c>
+      <c r="D4">
         <f>Transportation_Services_Index_a!AV4</f>
         <v>99.7</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <f>Transportation_Services_Index_a!AX4</f>
         <v>98.7</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <f>Transportation_Services_Index_a!AZ4</f>
         <v>99.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>Transportation_Services_Index_a!B5</f>
         <v>36617</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.3333333333333</v>
+      </c>
+      <c r="D5">
         <f>Transportation_Services_Index_a!AV5</f>
         <v>97.9</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <f>Transportation_Services_Index_a!AX5</f>
         <v>99.2</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <f>Transportation_Services_Index_a!AZ5</f>
         <v>98.3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f>Transportation_Services_Index_a!B6</f>
         <v>36647</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.4166666666667</v>
+      </c>
+      <c r="D6">
         <f>Transportation_Services_Index_a!AV6</f>
         <v>98.8</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <f>Transportation_Services_Index_a!AX6</f>
         <v>102.2</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <f>Transportation_Services_Index_a!AZ6</f>
         <v>99.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f>Transportation_Services_Index_a!B7</f>
         <v>36678</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.5</v>
+      </c>
+      <c r="D7">
         <f>Transportation_Services_Index_a!AV7</f>
         <v>99.8</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <f>Transportation_Services_Index_a!AX7</f>
         <v>101.1</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <f>Transportation_Services_Index_a!AZ7</f>
         <v>100.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f>Transportation_Services_Index_a!B8</f>
         <v>36708</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.5833333333333</v>
+      </c>
+      <c r="D8">
         <f>Transportation_Services_Index_a!AV8</f>
         <v>97.7</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <f>Transportation_Services_Index_a!AX8</f>
         <v>100.8</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <f>Transportation_Services_Index_a!AZ8</f>
         <v>98.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>Transportation_Services_Index_a!B9</f>
         <v>36739</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.6666666666667</v>
+      </c>
+      <c r="D9">
         <f>Transportation_Services_Index_a!AV9</f>
         <v>99.7</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <f>Transportation_Services_Index_a!AX9</f>
         <v>100.4</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <f>Transportation_Services_Index_a!AZ9</f>
         <v>99.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f>Transportation_Services_Index_a!B10</f>
         <v>36770</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.75</v>
+      </c>
+      <c r="D10">
         <f>Transportation_Services_Index_a!AV10</f>
         <v>99.7</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <f>Transportation_Services_Index_a!AX10</f>
         <v>103.5</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <f>Transportation_Services_Index_a!AZ10</f>
         <v>100.9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>Transportation_Services_Index_a!B11</f>
         <v>36800</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.8333333333333</v>
+      </c>
+      <c r="D11">
         <f>Transportation_Services_Index_a!AV11</f>
         <v>99.5</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <f>Transportation_Services_Index_a!AX11</f>
         <v>102.5</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <f>Transportation_Services_Index_a!AZ11</f>
         <v>100.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>Transportation_Services_Index_a!B12</f>
         <v>36831</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>2000.9166666666667</v>
+      </c>
+      <c r="D12">
         <f>Transportation_Services_Index_a!AV12</f>
         <v>99.9</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <f>Transportation_Services_Index_a!AX12</f>
         <v>101.5</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <f>Transportation_Services_Index_a!AZ12</f>
         <v>100.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>Transportation_Services_Index_a!B13</f>
         <v>36861</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="D13">
         <f>Transportation_Services_Index_a!AV13</f>
         <v>99</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <f>Transportation_Services_Index_a!AX13</f>
         <v>98</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <f>Transportation_Services_Index_a!AZ13</f>
         <v>98.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f>Transportation_Services_Index_a!B14</f>
         <v>36892</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.0833333333333</v>
+      </c>
+      <c r="D14">
         <f>Transportation_Services_Index_a!AV14</f>
         <v>99.4</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <f>Transportation_Services_Index_a!AX14</f>
         <v>100.5</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <f>Transportation_Services_Index_a!AZ14</f>
         <v>99.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f>Transportation_Services_Index_a!B15</f>
         <v>36923</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.1666666666667</v>
+      </c>
+      <c r="D15">
         <f>Transportation_Services_Index_a!AV15</f>
         <v>99.3</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <f>Transportation_Services_Index_a!AX15</f>
         <v>100.4</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <f>Transportation_Services_Index_a!AZ15</f>
         <v>99.7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f>Transportation_Services_Index_a!B16</f>
         <v>36951</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.25</v>
+      </c>
+      <c r="D16">
         <f>Transportation_Services_Index_a!AV16</f>
         <v>99.5</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <f>Transportation_Services_Index_a!AX16</f>
         <v>100.8</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <f>Transportation_Services_Index_a!AZ16</f>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f>Transportation_Services_Index_a!B17</f>
         <v>36982</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.3333333333333</v>
+      </c>
+      <c r="D17">
         <f>Transportation_Services_Index_a!AV17</f>
         <v>98</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <f>Transportation_Services_Index_a!AX17</f>
         <v>101.1</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <f>Transportation_Services_Index_a!AZ17</f>
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f>Transportation_Services_Index_a!B18</f>
         <v>37012</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.4166666666667</v>
+      </c>
+      <c r="D18">
         <f>Transportation_Services_Index_a!AV18</f>
         <v>99.5</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <f>Transportation_Services_Index_a!AX18</f>
         <v>101.8</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <f>Transportation_Services_Index_a!AZ18</f>
         <v>100.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f>Transportation_Services_Index_a!B19</f>
         <v>37043</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.5</v>
+      </c>
+      <c r="D19">
         <f>Transportation_Services_Index_a!AV19</f>
         <v>98.7</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <f>Transportation_Services_Index_a!AX19</f>
         <v>102.1</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <f>Transportation_Services_Index_a!AZ19</f>
         <v>99.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f>Transportation_Services_Index_a!B20</f>
         <v>37073</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.5833333333333</v>
+      </c>
+      <c r="D20">
         <f>Transportation_Services_Index_a!AV20</f>
         <v>97.9</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <f>Transportation_Services_Index_a!AX20</f>
         <v>102</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <f>Transportation_Services_Index_a!AZ20</f>
         <v>99.1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>Transportation_Services_Index_a!B21</f>
         <v>37104</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.6666666666667</v>
+      </c>
+      <c r="D21">
         <f>Transportation_Services_Index_a!AV21</f>
         <v>99.3</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <f>Transportation_Services_Index_a!AX21</f>
         <v>102.8</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <f>Transportation_Services_Index_a!AZ21</f>
         <v>100.4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>Transportation_Services_Index_a!B22</f>
         <v>37135</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.75</v>
+      </c>
+      <c r="D22">
         <f>Transportation_Services_Index_a!AV22</f>
         <v>98.1</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <f>Transportation_Services_Index_a!AX22</f>
         <v>82.9</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <f>Transportation_Services_Index_a!AZ22</f>
         <v>93.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f>Transportation_Services_Index_a!B23</f>
         <v>37165</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.8333333333333</v>
+      </c>
+      <c r="D23">
         <f>Transportation_Services_Index_a!AV23</f>
         <v>98.9</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <f>Transportation_Services_Index_a!AX23</f>
         <v>86</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <f>Transportation_Services_Index_a!AZ23</f>
         <v>95.2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f>Transportation_Services_Index_a!B24</f>
         <v>37196</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>2001.9166666666667</v>
+      </c>
+      <c r="D24">
         <f>Transportation_Services_Index_a!AV24</f>
         <v>98.1</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <f>Transportation_Services_Index_a!AX24</f>
         <v>88.3</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <f>Transportation_Services_Index_a!AZ24</f>
         <v>95.3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f>Transportation_Services_Index_a!B25</f>
         <v>37226</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>2002</v>
+      </c>
+      <c r="D25">
         <f>Transportation_Services_Index_a!AV25</f>
         <v>97.6</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <f>Transportation_Services_Index_a!AX25</f>
         <v>90.4</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <f>Transportation_Services_Index_a!AZ25</f>
         <v>95.7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f>Transportation_Services_Index_a!B26</f>
         <v>37257</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.0833333333333</v>
+      </c>
+      <c r="D26">
         <f>Transportation_Services_Index_a!AV26</f>
         <v>98.8</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <f>Transportation_Services_Index_a!AX26</f>
         <v>92.3</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <f>Transportation_Services_Index_a!AZ26</f>
         <v>97.1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>Transportation_Services_Index_a!B27</f>
         <v>37288</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.1666666666667</v>
+      </c>
+      <c r="D27">
         <f>Transportation_Services_Index_a!AV27</f>
         <v>99.9</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <f>Transportation_Services_Index_a!AX27</f>
         <v>94.9</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <f>Transportation_Services_Index_a!AZ27</f>
         <v>98.6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f>Transportation_Services_Index_a!B28</f>
         <v>37316</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.25</v>
+      </c>
+      <c r="D28">
         <f>Transportation_Services_Index_a!AV28</f>
         <v>99.1</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <f>Transportation_Services_Index_a!AX28</f>
         <v>94</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <f>Transportation_Services_Index_a!AZ28</f>
         <v>97.7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f>Transportation_Services_Index_a!B29</f>
         <v>37347</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.3333333333333</v>
+      </c>
+      <c r="D29">
         <f>Transportation_Services_Index_a!AV29</f>
         <v>99.8</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <f>Transportation_Services_Index_a!AX29</f>
         <v>95</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <f>Transportation_Services_Index_a!AZ29</f>
         <v>98.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f>Transportation_Services_Index_a!B30</f>
         <v>37377</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.4166666666667</v>
+      </c>
+      <c r="D30">
         <f>Transportation_Services_Index_a!AV30</f>
         <v>101.1</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <f>Transportation_Services_Index_a!AX30</f>
         <v>95.8</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <f>Transportation_Services_Index_a!AZ30</f>
         <v>99.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f>Transportation_Services_Index_a!B31</f>
         <v>37408</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.5</v>
+      </c>
+      <c r="D31">
         <f>Transportation_Services_Index_a!AV31</f>
         <v>101.6</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <f>Transportation_Services_Index_a!AX31</f>
         <v>95.9</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <f>Transportation_Services_Index_a!AZ31</f>
         <v>100.1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f>Transportation_Services_Index_a!B32</f>
         <v>37438</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.5833333333333</v>
+      </c>
+      <c r="D32">
         <f>Transportation_Services_Index_a!AV32</f>
         <v>102.9</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <f>Transportation_Services_Index_a!AX32</f>
         <v>95.8</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <f>Transportation_Services_Index_a!AZ32</f>
         <v>100.9</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f>Transportation_Services_Index_a!B33</f>
         <v>37469</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.6666666666667</v>
+      </c>
+      <c r="D33">
         <f>Transportation_Services_Index_a!AV33</f>
         <v>102.6</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <f>Transportation_Services_Index_a!AX33</f>
         <v>96.3</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <f>Transportation_Services_Index_a!AZ33</f>
         <v>100.9</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f>Transportation_Services_Index_a!B34</f>
         <v>37500</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.75</v>
+      </c>
+      <c r="D34">
         <f>Transportation_Services_Index_a!AV34</f>
         <v>103.1</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <f>Transportation_Services_Index_a!AX34</f>
         <v>95.2</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <f>Transportation_Services_Index_a!AZ34</f>
         <v>100.9</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f>Transportation_Services_Index_a!B35</f>
         <v>37530</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.8333333333333</v>
+      </c>
+      <c r="D35">
         <f>Transportation_Services_Index_a!AV35</f>
         <v>104.6</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <f>Transportation_Services_Index_a!AX35</f>
         <v>96.8</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <f>Transportation_Services_Index_a!AZ35</f>
         <v>102.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f>Transportation_Services_Index_a!B36</f>
         <v>37561</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>2002.9166666666667</v>
+      </c>
+      <c r="D36">
         <f>Transportation_Services_Index_a!AV36</f>
         <v>104.8</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <f>Transportation_Services_Index_a!AX36</f>
         <v>96.9</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <f>Transportation_Services_Index_a!AZ36</f>
         <v>102.6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <f>Transportation_Services_Index_a!B37</f>
         <v>37591</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="D37">
         <f>Transportation_Services_Index_a!AV37</f>
         <v>105</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <f>Transportation_Services_Index_a!AX37</f>
         <v>96.3</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <f>Transportation_Services_Index_a!AZ37</f>
         <v>102.6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <f>Transportation_Services_Index_a!B38</f>
         <v>37622</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.0833333333333</v>
+      </c>
+      <c r="D38">
         <f>Transportation_Services_Index_a!AV38</f>
         <v>104.2</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <f>Transportation_Services_Index_a!AX38</f>
         <v>96.6</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <f>Transportation_Services_Index_a!AZ38</f>
         <v>102.1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <f>Transportation_Services_Index_a!B39</f>
         <v>37653</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.1666666666667</v>
+      </c>
+      <c r="D39">
         <f>Transportation_Services_Index_a!AV39</f>
         <v>103.4</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <f>Transportation_Services_Index_a!AX39</f>
         <v>96.6</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <f>Transportation_Services_Index_a!AZ39</f>
         <v>101.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <f>Transportation_Services_Index_a!B40</f>
         <v>37681</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.25</v>
+      </c>
+      <c r="D40">
         <f>Transportation_Services_Index_a!AV40</f>
         <v>103.8</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <f>Transportation_Services_Index_a!AX40</f>
         <v>94.9</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <f>Transportation_Services_Index_a!AZ40</f>
         <v>101.2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <f>Transportation_Services_Index_a!B41</f>
         <v>37712</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.3333333333333</v>
+      </c>
+      <c r="D41">
         <f>Transportation_Services_Index_a!AV41</f>
         <v>104</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <f>Transportation_Services_Index_a!AX41</f>
         <v>92.4</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <f>Transportation_Services_Index_a!AZ41</f>
         <v>100.6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <f>Transportation_Services_Index_a!B42</f>
         <v>37742</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.4166666666667</v>
+      </c>
+      <c r="D42">
         <f>Transportation_Services_Index_a!AV42</f>
         <v>103.1</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <f>Transportation_Services_Index_a!AX42</f>
         <v>93.9</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <f>Transportation_Services_Index_a!AZ42</f>
         <v>100.4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <f>Transportation_Services_Index_a!B43</f>
         <v>37773</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.5</v>
+      </c>
+      <c r="D43">
         <f>Transportation_Services_Index_a!AV43</f>
         <v>103</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <f>Transportation_Services_Index_a!AX43</f>
         <v>94.5</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <f>Transportation_Services_Index_a!AZ43</f>
         <v>100.6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <f>Transportation_Services_Index_a!B44</f>
         <v>37803</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="4">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.5833333333333</v>
+      </c>
+      <c r="D44">
         <f>Transportation_Services_Index_a!AV44</f>
         <v>104.3</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <f>Transportation_Services_Index_a!AX44</f>
         <v>96.7</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <f>Transportation_Services_Index_a!AZ44</f>
         <v>102.2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <f>Transportation_Services_Index_a!B45</f>
         <v>37834</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.6666666666667</v>
+      </c>
+      <c r="D45">
         <f>Transportation_Services_Index_a!AV45</f>
         <v>103.8</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <f>Transportation_Services_Index_a!AX45</f>
         <v>97.1</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <f>Transportation_Services_Index_a!AZ45</f>
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <f>Transportation_Services_Index_a!B46</f>
         <v>37865</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.75</v>
+      </c>
+      <c r="D46">
         <f>Transportation_Services_Index_a!AV46</f>
         <v>105.1</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <f>Transportation_Services_Index_a!AX46</f>
         <v>98.3</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <f>Transportation_Services_Index_a!AZ46</f>
         <v>103.2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <f>Transportation_Services_Index_a!B47</f>
         <v>37895</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.8333333333333</v>
+      </c>
+      <c r="D47">
         <f>Transportation_Services_Index_a!AV47</f>
         <v>106.8</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <f>Transportation_Services_Index_a!AX47</f>
         <v>97.5</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <f>Transportation_Services_Index_a!AZ47</f>
         <v>104.1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <f>Transportation_Services_Index_a!B48</f>
         <v>37926</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>2003.9166666666667</v>
+      </c>
+      <c r="D48">
         <f>Transportation_Services_Index_a!AV48</f>
         <v>106.3</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <f>Transportation_Services_Index_a!AX48</f>
         <v>98.8</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <f>Transportation_Services_Index_a!AZ48</f>
         <v>104.2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <f>Transportation_Services_Index_a!B49</f>
         <v>37956</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D49">
         <f>Transportation_Services_Index_a!AV49</f>
         <v>108.8</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <f>Transportation_Services_Index_a!AX49</f>
         <v>100.6</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <f>Transportation_Services_Index_a!AZ49</f>
         <v>106.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <f>Transportation_Services_Index_a!B50</f>
         <v>37987</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.0833333333333</v>
+      </c>
+      <c r="D50">
         <f>Transportation_Services_Index_a!AV50</f>
         <v>107.8</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <f>Transportation_Services_Index_a!AX50</f>
         <v>99.6</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <f>Transportation_Services_Index_a!AZ50</f>
         <v>105.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <f>Transportation_Services_Index_a!B51</f>
         <v>38018</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.1666666666667</v>
+      </c>
+      <c r="D51">
         <f>Transportation_Services_Index_a!AV51</f>
         <v>108</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <f>Transportation_Services_Index_a!AX51</f>
         <v>101.7</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <f>Transportation_Services_Index_a!AZ51</f>
         <v>106.3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <f>Transportation_Services_Index_a!B52</f>
         <v>38047</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.25</v>
+      </c>
+      <c r="D52">
         <f>Transportation_Services_Index_a!AV52</f>
         <v>110.4</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <f>Transportation_Services_Index_a!AX52</f>
         <v>102.7</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <f>Transportation_Services_Index_a!AZ52</f>
         <v>108.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <f>Transportation_Services_Index_a!B53</f>
         <v>38078</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.3333333333333</v>
+      </c>
+      <c r="D53">
         <f>Transportation_Services_Index_a!AV53</f>
         <v>110.8</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <f>Transportation_Services_Index_a!AX53</f>
         <v>103.2</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <f>Transportation_Services_Index_a!AZ53</f>
         <v>108.7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <f>Transportation_Services_Index_a!B54</f>
         <v>38108</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.4166666666667</v>
+      </c>
+      <c r="D54">
         <f>Transportation_Services_Index_a!AV54</f>
         <v>110.5</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <f>Transportation_Services_Index_a!AX54</f>
         <v>103.1</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <f>Transportation_Services_Index_a!AZ54</f>
         <v>108.4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <f>Transportation_Services_Index_a!B55</f>
         <v>38139</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
+        <v>54</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.5</v>
+      </c>
+      <c r="D55">
         <f>Transportation_Services_Index_a!AV55</f>
         <v>111.1</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <f>Transportation_Services_Index_a!AX55</f>
         <v>104.6</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <f>Transportation_Services_Index_a!AZ55</f>
         <v>109.4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <f>Transportation_Services_Index_a!B56</f>
         <v>38169</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.5833333333333</v>
+      </c>
+      <c r="D56">
         <f>Transportation_Services_Index_a!AV56</f>
         <v>111.3</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <f>Transportation_Services_Index_a!AX56</f>
         <v>104.3</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <f>Transportation_Services_Index_a!AZ56</f>
         <v>109.4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <f>Transportation_Services_Index_a!B57</f>
         <v>38200</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
+        <v>56</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.6666666666667</v>
+      </c>
+      <c r="D57">
         <f>Transportation_Services_Index_a!AV57</f>
         <v>110.2</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <f>Transportation_Services_Index_a!AX57</f>
         <v>104.5</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <f>Transportation_Services_Index_a!AZ57</f>
         <v>108.7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <f>Transportation_Services_Index_a!B58</f>
         <v>38231</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
+        <v>57</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.75</v>
+      </c>
+      <c r="D58">
         <f>Transportation_Services_Index_a!AV58</f>
         <v>110.8</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <f>Transportation_Services_Index_a!AX58</f>
         <v>104.4</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <f>Transportation_Services_Index_a!AZ58</f>
         <v>109.1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <f>Transportation_Services_Index_a!B59</f>
         <v>38261</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
+        <v>58</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.8333333333333</v>
+      </c>
+      <c r="D59">
         <f>Transportation_Services_Index_a!AV59</f>
         <v>111.4</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <f>Transportation_Services_Index_a!AX59</f>
         <v>106.2</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <f>Transportation_Services_Index_a!AZ59</f>
         <v>110.1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <f>Transportation_Services_Index_a!B60</f>
         <v>38292</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
+        <v>59</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
+        <v>2004.9166666666667</v>
+      </c>
+      <c r="D60">
         <f>Transportation_Services_Index_a!AV60</f>
         <v>112.2</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <f>Transportation_Services_Index_a!AX60</f>
         <v>105.7</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <f>Transportation_Services_Index_a!AZ60</f>
         <v>110.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <f>Transportation_Services_Index_a!B61</f>
         <v>38322</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="D61">
         <f>Transportation_Services_Index_a!AV61</f>
         <v>111.9</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <f>Transportation_Services_Index_a!AX61</f>
         <v>106.4</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <f>Transportation_Services_Index_a!AZ61</f>
         <v>110.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <f>Transportation_Services_Index_a!B62</f>
         <v>38353</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
+        <v>2005.0833333333333</v>
+      </c>
+      <c r="D62">
         <f>Transportation_Services_Index_a!AV62</f>
         <v>114.2</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <f>Transportation_Services_Index_a!AX62</f>
         <v>107.8</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <f>Transportation_Services_Index_a!AZ62</f>
         <v>112.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <f>Transportation_Services_Index_a!B63</f>
         <v>38384</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
+        <v>2005.1666666666667</v>
+      </c>
+      <c r="D63">
         <f>Transportation_Services_Index_a!AV63</f>
         <v>113.3</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <f>Transportation_Services_Index_a!AX63</f>
         <v>108.4</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <f>Transportation_Services_Index_a!AZ63</f>
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <f>Transportation_Services_Index_a!B64</f>
         <v>38412</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
+        <v>63</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="0"/>
+        <v>2005.25</v>
+      </c>
+      <c r="D64">
         <f>Transportation_Services_Index_a!AV64</f>
         <v>112.5</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <f>Transportation_Services_Index_a!AX64</f>
         <v>108.4</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <f>Transportation_Services_Index_a!AZ64</f>
         <v>111.5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <f>Transportation_Services_Index_a!B65</f>
         <v>38443</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="4">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="0"/>
+        <v>2005.3333333333333</v>
+      </c>
+      <c r="D65">
         <f>Transportation_Services_Index_a!AV65</f>
         <v>113.2</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <f>Transportation_Services_Index_a!AX65</f>
         <v>109</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <f>Transportation_Services_Index_a!AZ65</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <f>Transportation_Services_Index_a!B66</f>
         <v>38473</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="4">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="0"/>
+        <v>2005.4166666666667</v>
+      </c>
+      <c r="D66">
         <f>Transportation_Services_Index_a!AV66</f>
         <v>112.4</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <f>Transportation_Services_Index_a!AX66</f>
         <v>108.9</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <f>Transportation_Services_Index_a!AZ66</f>
         <v>111.6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <f>Transportation_Services_Index_a!B67</f>
         <v>38504</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="4">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" ref="C67:C130" si="1">2000 + B67/12</f>
+        <v>2005.5</v>
+      </c>
+      <c r="D67">
         <f>Transportation_Services_Index_a!AV67</f>
         <v>112</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <f>Transportation_Services_Index_a!AX67</f>
         <v>108.9</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <f>Transportation_Services_Index_a!AZ67</f>
         <v>111.3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <f>Transportation_Services_Index_a!B68</f>
         <v>38534</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="4">
+        <v>67</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="1"/>
+        <v>2005.5833333333333</v>
+      </c>
+      <c r="D68">
         <f>Transportation_Services_Index_a!AV68</f>
         <v>111.9</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <f>Transportation_Services_Index_a!AX68</f>
         <v>108.9</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <f>Transportation_Services_Index_a!AZ68</f>
         <v>111.3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <f>Transportation_Services_Index_a!B69</f>
         <v>38565</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="1"/>
+        <v>2005.6666666666667</v>
+      </c>
+      <c r="D69">
         <f>Transportation_Services_Index_a!AV69</f>
         <v>112.8</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <f>Transportation_Services_Index_a!AX69</f>
         <v>108.6</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <f>Transportation_Services_Index_a!AZ69</f>
         <v>111.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <f>Transportation_Services_Index_a!B70</f>
         <v>38596</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="1"/>
+        <v>2005.75</v>
+      </c>
+      <c r="D70">
         <f>Transportation_Services_Index_a!AV70</f>
         <v>111.7</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <f>Transportation_Services_Index_a!AX70</f>
         <v>110.3</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <f>Transportation_Services_Index_a!AZ70</f>
         <v>111.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <f>Transportation_Services_Index_a!B71</f>
         <v>38626</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
+        <v>70</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="1"/>
+        <v>2005.8333333333333</v>
+      </c>
+      <c r="D71">
         <f>Transportation_Services_Index_a!AV71</f>
         <v>111.2</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <f>Transportation_Services_Index_a!AX71</f>
         <v>108</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <f>Transportation_Services_Index_a!AZ71</f>
         <v>110.5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <f>Transportation_Services_Index_a!B72</f>
         <v>38657</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="1"/>
+        <v>2005.9166666666667</v>
+      </c>
+      <c r="D72">
         <f>Transportation_Services_Index_a!AV72</f>
         <v>114</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <f>Transportation_Services_Index_a!AX72</f>
         <v>109.6</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <f>Transportation_Services_Index_a!AZ72</f>
         <v>112.9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <f>Transportation_Services_Index_a!B73</f>
         <v>38687</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+      <c r="D73">
         <f>Transportation_Services_Index_a!AV73</f>
         <v>112.6</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <f>Transportation_Services_Index_a!AX73</f>
         <v>109.2</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <f>Transportation_Services_Index_a!AZ73</f>
         <v>111.9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <f>Transportation_Services_Index_a!B74</f>
         <v>38718</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.0833333333333</v>
+      </c>
+      <c r="D74">
         <f>Transportation_Services_Index_a!AV74</f>
         <v>112.7</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <f>Transportation_Services_Index_a!AX74</f>
         <v>110.3</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <f>Transportation_Services_Index_a!AZ74</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <f>Transportation_Services_Index_a!B75</f>
         <v>38749</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.1666666666667</v>
+      </c>
+      <c r="D75">
         <f>Transportation_Services_Index_a!AV75</f>
         <v>111.9</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <f>Transportation_Services_Index_a!AX75</f>
         <v>110.6</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <f>Transportation_Services_Index_a!AZ75</f>
         <v>111.7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <f>Transportation_Services_Index_a!B76</f>
         <v>38777</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.25</v>
+      </c>
+      <c r="D76">
         <f>Transportation_Services_Index_a!AV76</f>
         <v>112.2</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <f>Transportation_Services_Index_a!AX76</f>
         <v>110.5</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <f>Transportation_Services_Index_a!AZ76</f>
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <f>Transportation_Services_Index_a!B77</f>
         <v>38808</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.3333333333333</v>
+      </c>
+      <c r="D77">
         <f>Transportation_Services_Index_a!AV77</f>
         <v>111.5</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <f>Transportation_Services_Index_a!AX77</f>
         <v>111.5</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <f>Transportation_Services_Index_a!AZ77</f>
         <v>111.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <f>Transportation_Services_Index_a!B78</f>
         <v>38838</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
+        <v>77</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.4166666666667</v>
+      </c>
+      <c r="D78">
         <f>Transportation_Services_Index_a!AV78</f>
         <v>113.8</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <f>Transportation_Services_Index_a!AX78</f>
         <v>111.7</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <f>Transportation_Services_Index_a!AZ78</f>
         <v>113.4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <f>Transportation_Services_Index_a!B79</f>
         <v>38869</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
+        <v>78</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.5</v>
+      </c>
+      <c r="D79">
         <f>Transportation_Services_Index_a!AV79</f>
         <v>113.3</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <f>Transportation_Services_Index_a!AX79</f>
         <v>110.8</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <f>Transportation_Services_Index_a!AZ79</f>
         <v>112.8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <f>Transportation_Services_Index_a!B80</f>
         <v>38899</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.5833333333333</v>
+      </c>
+      <c r="D80">
         <f>Transportation_Services_Index_a!AV80</f>
         <v>112</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <f>Transportation_Services_Index_a!AX80</f>
         <v>111.2</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <f>Transportation_Services_Index_a!AZ80</f>
         <v>112.1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <f>Transportation_Services_Index_a!B81</f>
         <v>38930</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.6666666666667</v>
+      </c>
+      <c r="D81">
         <f>Transportation_Services_Index_a!AV81</f>
         <v>109.8</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <f>Transportation_Services_Index_a!AX81</f>
         <v>109.8</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <f>Transportation_Services_Index_a!AZ81</f>
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <f>Transportation_Services_Index_a!B82</f>
         <v>38961</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.75</v>
+      </c>
+      <c r="D82">
         <f>Transportation_Services_Index_a!AV82</f>
         <v>113</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <f>Transportation_Services_Index_a!AX82</f>
         <v>111.2</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <f>Transportation_Services_Index_a!AZ82</f>
         <v>112.8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <f>Transportation_Services_Index_a!B83</f>
         <v>38991</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
+        <v>82</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.8333333333333</v>
+      </c>
+      <c r="D83">
         <f>Transportation_Services_Index_a!AV83</f>
         <v>111</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <f>Transportation_Services_Index_a!AX83</f>
         <v>111.9</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <f>Transportation_Services_Index_a!AZ83</f>
         <v>111.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <f>Transportation_Services_Index_a!B84</f>
         <v>39022</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="1"/>
+        <v>2006.9166666666667</v>
+      </c>
+      <c r="D84">
         <f>Transportation_Services_Index_a!AV84</f>
         <v>108.7</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <f>Transportation_Services_Index_a!AX84</f>
         <v>113.1</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <f>Transportation_Services_Index_a!AZ84</f>
         <v>110.3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <f>Transportation_Services_Index_a!B85</f>
         <v>39052</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
+        <v>84</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="D85">
         <f>Transportation_Services_Index_a!AV85</f>
         <v>110.8</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <f>Transportation_Services_Index_a!AX85</f>
         <v>113.8</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <f>Transportation_Services_Index_a!AZ85</f>
         <v>111.9</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <f>Transportation_Services_Index_a!B86</f>
         <v>39083</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
+        <v>85</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.0833333333333</v>
+      </c>
+      <c r="D86">
         <f>Transportation_Services_Index_a!AV86</f>
         <v>110.1</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <f>Transportation_Services_Index_a!AX86</f>
         <v>114.3</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <f>Transportation_Services_Index_a!AZ86</f>
         <v>111.6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <f>Transportation_Services_Index_a!B87</f>
         <v>39114</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
+        <v>86</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.1666666666667</v>
+      </c>
+      <c r="D87">
         <f>Transportation_Services_Index_a!AV87</f>
         <v>110.8</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <f>Transportation_Services_Index_a!AX87</f>
         <v>114</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <f>Transportation_Services_Index_a!AZ87</f>
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <f>Transportation_Services_Index_a!B88</f>
         <v>39142</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
+        <v>87</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.25</v>
+      </c>
+      <c r="D88">
         <f>Transportation_Services_Index_a!AV88</f>
         <v>111.9</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <f>Transportation_Services_Index_a!AX88</f>
         <v>116.4</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <f>Transportation_Services_Index_a!AZ88</f>
         <v>113.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <f>Transportation_Services_Index_a!B89</f>
         <v>39173</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
+        <v>88</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.3333333333333</v>
+      </c>
+      <c r="D89">
         <f>Transportation_Services_Index_a!AV89</f>
         <v>110.4</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <f>Transportation_Services_Index_a!AX89</f>
         <v>116</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <f>Transportation_Services_Index_a!AZ89</f>
         <v>112.3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <f>Transportation_Services_Index_a!B90</f>
         <v>39203</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="4">
+        <v>89</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.4166666666667</v>
+      </c>
+      <c r="D90">
         <f>Transportation_Services_Index_a!AV90</f>
         <v>110.5</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <f>Transportation_Services_Index_a!AX90</f>
         <v>118.9</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <f>Transportation_Services_Index_a!AZ90</f>
         <v>113.3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <f>Transportation_Services_Index_a!B91</f>
         <v>39234</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="4">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.5</v>
+      </c>
+      <c r="D91">
         <f>Transportation_Services_Index_a!AV91</f>
         <v>109.8</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <f>Transportation_Services_Index_a!AX91</f>
         <v>117</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <f>Transportation_Services_Index_a!AZ91</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <f>Transportation_Services_Index_a!B92</f>
         <v>39264</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="4">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.5833333333333</v>
+      </c>
+      <c r="D92">
         <f>Transportation_Services_Index_a!AV92</f>
         <v>108.9</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <f>Transportation_Services_Index_a!AX92</f>
         <v>116.6</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <f>Transportation_Services_Index_a!AZ92</f>
         <v>111.4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <f>Transportation_Services_Index_a!B93</f>
         <v>39295</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="4">
+        <v>92</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.6666666666667</v>
+      </c>
+      <c r="D93">
         <f>Transportation_Services_Index_a!AV93</f>
         <v>109.7</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <f>Transportation_Services_Index_a!AX93</f>
         <v>117.6</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <f>Transportation_Services_Index_a!AZ93</f>
         <v>112.3</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <f>Transportation_Services_Index_a!B94</f>
         <v>39326</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="4">
+        <v>93</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.75</v>
+      </c>
+      <c r="D94">
         <f>Transportation_Services_Index_a!AV94</f>
         <v>109.5</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <f>Transportation_Services_Index_a!AX94</f>
         <v>118</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <f>Transportation_Services_Index_a!AZ94</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <f>Transportation_Services_Index_a!B95</f>
         <v>39356</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="4">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.8333333333333</v>
+      </c>
+      <c r="D95">
         <f>Transportation_Services_Index_a!AV95</f>
         <v>111</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <f>Transportation_Services_Index_a!AX95</f>
         <v>117</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <f>Transportation_Services_Index_a!AZ95</f>
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <f>Transportation_Services_Index_a!B96</f>
         <v>39387</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="4">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="1"/>
+        <v>2007.9166666666667</v>
+      </c>
+      <c r="D96">
         <f>Transportation_Services_Index_a!AV96</f>
         <v>110.8</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <f>Transportation_Services_Index_a!AX96</f>
         <v>117</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <f>Transportation_Services_Index_a!AZ96</f>
         <v>112.9</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <f>Transportation_Services_Index_a!B97</f>
         <v>39417</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="4">
+        <v>96</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="D97">
         <f>Transportation_Services_Index_a!AV97</f>
         <v>110.8</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <f>Transportation_Services_Index_a!AX97</f>
         <v>116.9</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <f>Transportation_Services_Index_a!AZ97</f>
         <v>112.9</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <f>Transportation_Services_Index_a!B98</f>
         <v>39448</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="4">
+        <v>97</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.0833333333333</v>
+      </c>
+      <c r="D98">
         <f>Transportation_Services_Index_a!AV98</f>
         <v>113.6</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <f>Transportation_Services_Index_a!AX98</f>
         <v>117</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <f>Transportation_Services_Index_a!AZ98</f>
         <v>114.9</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <f>Transportation_Services_Index_a!B99</f>
         <v>39479</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
+        <v>98</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.1666666666667</v>
+      </c>
+      <c r="D99">
         <f>Transportation_Services_Index_a!AV99</f>
         <v>111.3</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <f>Transportation_Services_Index_a!AX99</f>
         <v>116.7</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <f>Transportation_Services_Index_a!AZ99</f>
         <v>113.2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <f>Transportation_Services_Index_a!B100</f>
         <v>39508</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
+        <v>99</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.25</v>
+      </c>
+      <c r="D100">
         <f>Transportation_Services_Index_a!AV100</f>
         <v>109.9</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <f>Transportation_Services_Index_a!AX100</f>
         <v>117.1</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <f>Transportation_Services_Index_a!AZ100</f>
         <v>112.3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <f>Transportation_Services_Index_a!B101</f>
         <v>39539</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
+        <v>100</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.3333333333333</v>
+      </c>
+      <c r="D101">
         <f>Transportation_Services_Index_a!AV101</f>
         <v>111.7</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <f>Transportation_Services_Index_a!AX101</f>
         <v>117</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <f>Transportation_Services_Index_a!AZ101</f>
         <v>113.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <f>Transportation_Services_Index_a!B102</f>
         <v>39569</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
+        <v>101</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.4166666666667</v>
+      </c>
+      <c r="D102">
         <f>Transportation_Services_Index_a!AV102</f>
         <v>111.6</v>
       </c>
-      <c r="C102">
+      <c r="E102">
         <f>Transportation_Services_Index_a!AX102</f>
         <v>117.1</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <f>Transportation_Services_Index_a!AZ102</f>
         <v>113.5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <f>Transportation_Services_Index_a!B103</f>
         <v>39600</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
+        <v>102</v>
+      </c>
+      <c r="C103" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.5</v>
+      </c>
+      <c r="D103">
         <f>Transportation_Services_Index_a!AV103</f>
         <v>110.1</v>
       </c>
-      <c r="C103">
+      <c r="E103">
         <f>Transportation_Services_Index_a!AX103</f>
         <v>116.4</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <f>Transportation_Services_Index_a!AZ103</f>
         <v>112.2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <f>Transportation_Services_Index_a!B104</f>
         <v>39630</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
+        <v>103</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.5833333333333</v>
+      </c>
+      <c r="D104">
         <f>Transportation_Services_Index_a!AV104</f>
         <v>111.2</v>
       </c>
-      <c r="C104">
+      <c r="E104">
         <f>Transportation_Services_Index_a!AX104</f>
         <v>116.5</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <f>Transportation_Services_Index_a!AZ104</f>
         <v>113.1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <f>Transportation_Services_Index_a!B105</f>
         <v>39661</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
+        <v>104</v>
+      </c>
+      <c r="C105" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.6666666666667</v>
+      </c>
+      <c r="D105">
         <f>Transportation_Services_Index_a!AV105</f>
         <v>109.1</v>
       </c>
-      <c r="C105">
+      <c r="E105">
         <f>Transportation_Services_Index_a!AX105</f>
         <v>116</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <f>Transportation_Services_Index_a!AZ105</f>
         <v>111.4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <f>Transportation_Services_Index_a!B106</f>
         <v>39692</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
+        <v>105</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.75</v>
+      </c>
+      <c r="D106">
         <f>Transportation_Services_Index_a!AV106</f>
         <v>107.5</v>
       </c>
-      <c r="C106">
+      <c r="E106">
         <f>Transportation_Services_Index_a!AX106</f>
         <v>112.9</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <f>Transportation_Services_Index_a!AZ106</f>
         <v>109.3</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <f>Transportation_Services_Index_a!B107</f>
         <v>39722</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
+        <v>106</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.8333333333333</v>
+      </c>
+      <c r="D107">
         <f>Transportation_Services_Index_a!AV107</f>
         <v>107.5</v>
       </c>
-      <c r="C107">
+      <c r="E107">
         <f>Transportation_Services_Index_a!AX107</f>
         <v>112.4</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <f>Transportation_Services_Index_a!AZ107</f>
         <v>109.2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <f>Transportation_Services_Index_a!B108</f>
         <v>39753</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
+        <v>107</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="1"/>
+        <v>2008.9166666666667</v>
+      </c>
+      <c r="D108">
         <f>Transportation_Services_Index_a!AV108</f>
         <v>104.4</v>
       </c>
-      <c r="C108">
+      <c r="E108">
         <f>Transportation_Services_Index_a!AX108</f>
         <v>110.8</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <f>Transportation_Services_Index_a!AZ108</f>
         <v>106.5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <f>Transportation_Services_Index_a!B109</f>
         <v>39783</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
+        <v>108</v>
+      </c>
+      <c r="C109" s="4">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="D109">
         <f>Transportation_Services_Index_a!AV109</f>
         <v>100.5</v>
       </c>
-      <c r="C109">
+      <c r="E109">
         <f>Transportation_Services_Index_a!AX109</f>
         <v>110.6</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <f>Transportation_Services_Index_a!AZ109</f>
         <v>103.7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <f>Transportation_Services_Index_a!B110</f>
         <v>39814</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
+        <v>109</v>
+      </c>
+      <c r="C110" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.0833333333333</v>
+      </c>
+      <c r="D110">
         <f>Transportation_Services_Index_a!AV110</f>
         <v>98.8</v>
       </c>
-      <c r="C110">
+      <c r="E110">
         <f>Transportation_Services_Index_a!AX110</f>
         <v>109.9</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <f>Transportation_Services_Index_a!AZ110</f>
         <v>102.3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <f>Transportation_Services_Index_a!B111</f>
         <v>39845</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
+        <v>110</v>
+      </c>
+      <c r="C111" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.1666666666667</v>
+      </c>
+      <c r="D111">
         <f>Transportation_Services_Index_a!AV111</f>
         <v>101.4</v>
       </c>
-      <c r="C111">
+      <c r="E111">
         <f>Transportation_Services_Index_a!AX111</f>
         <v>111.1</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <f>Transportation_Services_Index_a!AZ111</f>
         <v>104.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <f>Transportation_Services_Index_a!B112</f>
         <v>39873</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
+        <v>111</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.25</v>
+      </c>
+      <c r="D112">
         <f>Transportation_Services_Index_a!AV112</f>
         <v>96</v>
       </c>
-      <c r="C112">
+      <c r="E112">
         <f>Transportation_Services_Index_a!AX112</f>
         <v>108.6</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <f>Transportation_Services_Index_a!AZ112</f>
         <v>99.9</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <f>Transportation_Services_Index_a!B113</f>
         <v>39904</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.3333333333333</v>
+      </c>
+      <c r="D113">
         <f>Transportation_Services_Index_a!AV113</f>
         <v>94.9</v>
       </c>
-      <c r="C113">
+      <c r="E113">
         <f>Transportation_Services_Index_a!AX113</f>
         <v>110.2</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <f>Transportation_Services_Index_a!AZ113</f>
         <v>99.7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <f>Transportation_Services_Index_a!B114</f>
         <v>39934</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
+        <v>113</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.4166666666667</v>
+      </c>
+      <c r="D114">
         <f>Transportation_Services_Index_a!AV114</f>
         <v>95.3</v>
       </c>
-      <c r="C114">
+      <c r="E114">
         <f>Transportation_Services_Index_a!AX114</f>
         <v>107.5</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <f>Transportation_Services_Index_a!AZ114</f>
         <v>99.1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <f>Transportation_Services_Index_a!B115</f>
         <v>39965</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
+        <v>114</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.5</v>
+      </c>
+      <c r="D115">
         <f>Transportation_Services_Index_a!AV115</f>
         <v>96.3</v>
       </c>
-      <c r="C115">
+      <c r="E115">
         <f>Transportation_Services_Index_a!AX115</f>
         <v>109.1</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <f>Transportation_Services_Index_a!AZ115</f>
         <v>100.3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <f>Transportation_Services_Index_a!B116</f>
         <v>39995</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
+        <v>115</v>
+      </c>
+      <c r="C116" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.5833333333333</v>
+      </c>
+      <c r="D116">
         <f>Transportation_Services_Index_a!AV116</f>
         <v>98.4</v>
       </c>
-      <c r="C116">
+      <c r="E116">
         <f>Transportation_Services_Index_a!AX116</f>
         <v>109.7</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <f>Transportation_Services_Index_a!AZ116</f>
         <v>101.9</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <f>Transportation_Services_Index_a!B117</f>
         <v>40026</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
+        <v>116</v>
+      </c>
+      <c r="C117" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.6666666666667</v>
+      </c>
+      <c r="D117">
         <f>Transportation_Services_Index_a!AV117</f>
         <v>99.2</v>
       </c>
-      <c r="C117">
+      <c r="E117">
         <f>Transportation_Services_Index_a!AX117</f>
         <v>110.6</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <f>Transportation_Services_Index_a!AZ117</f>
         <v>102.8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <f>Transportation_Services_Index_a!B118</f>
         <v>40057</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
+        <v>117</v>
+      </c>
+      <c r="C118" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.75</v>
+      </c>
+      <c r="D118">
         <f>Transportation_Services_Index_a!AV118</f>
         <v>99.7</v>
       </c>
-      <c r="C118">
+      <c r="E118">
         <f>Transportation_Services_Index_a!AX118</f>
         <v>109.9</v>
       </c>
-      <c r="D118">
+      <c r="F118">
         <f>Transportation_Services_Index_a!AZ118</f>
         <v>102.9</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <f>Transportation_Services_Index_a!B119</f>
         <v>40087</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
+        <v>118</v>
+      </c>
+      <c r="C119" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.8333333333333</v>
+      </c>
+      <c r="D119">
         <f>Transportation_Services_Index_a!AV119</f>
         <v>98.7</v>
       </c>
-      <c r="C119">
+      <c r="E119">
         <f>Transportation_Services_Index_a!AX119</f>
         <v>109.9</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <f>Transportation_Services_Index_a!AZ119</f>
         <v>102.2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <f>Transportation_Services_Index_a!B120</f>
         <v>40118</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="4">
+        <v>119</v>
+      </c>
+      <c r="C120" s="4">
+        <f t="shared" si="1"/>
+        <v>2009.9166666666667</v>
+      </c>
+      <c r="D120">
         <f>Transportation_Services_Index_a!AV120</f>
         <v>101.4</v>
       </c>
-      <c r="C120">
+      <c r="E120">
         <f>Transportation_Services_Index_a!AX120</f>
         <v>108.9</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <f>Transportation_Services_Index_a!AZ120</f>
         <v>103.7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <f>Transportation_Services_Index_a!B121</f>
         <v>40148</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="4">
+        <v>120</v>
+      </c>
+      <c r="C121" s="4">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="D121">
         <f>Transportation_Services_Index_a!AV121</f>
         <v>101.9</v>
       </c>
-      <c r="C121">
+      <c r="E121">
         <f>Transportation_Services_Index_a!AX121</f>
         <v>110.6</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <f>Transportation_Services_Index_a!AZ121</f>
         <v>104.6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <f>Transportation_Services_Index_a!B122</f>
         <v>40179</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
+        <v>121</v>
+      </c>
+      <c r="C122" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.0833333333333</v>
+      </c>
+      <c r="D122">
         <f>Transportation_Services_Index_a!AV122</f>
         <v>103.3</v>
       </c>
-      <c r="C122">
+      <c r="E122">
         <f>Transportation_Services_Index_a!AX122</f>
         <v>110.5</v>
       </c>
-      <c r="D122">
+      <c r="F122">
         <f>Transportation_Services_Index_a!AZ122</f>
         <v>105.5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <f>Transportation_Services_Index_a!B123</f>
         <v>40210</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="4">
+        <v>122</v>
+      </c>
+      <c r="C123" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.1666666666667</v>
+      </c>
+      <c r="D123">
         <f>Transportation_Services_Index_a!AV123</f>
         <v>105.5</v>
       </c>
-      <c r="C123">
+      <c r="E123">
         <f>Transportation_Services_Index_a!AX123</f>
         <v>108.9</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <f>Transportation_Services_Index_a!AZ123</f>
         <v>106.5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <f>Transportation_Services_Index_a!B124</f>
         <v>40238</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="4">
+        <v>123</v>
+      </c>
+      <c r="C124" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.25</v>
+      </c>
+      <c r="D124">
         <f>Transportation_Services_Index_a!AV124</f>
         <v>105.6</v>
       </c>
-      <c r="C124">
+      <c r="E124">
         <f>Transportation_Services_Index_a!AX124</f>
         <v>111</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <f>Transportation_Services_Index_a!AZ124</f>
         <v>107.3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <f>Transportation_Services_Index_a!B125</f>
         <v>40269</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
+        <v>124</v>
+      </c>
+      <c r="C125" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.3333333333333</v>
+      </c>
+      <c r="D125">
         <f>Transportation_Services_Index_a!AV125</f>
         <v>106.5</v>
       </c>
-      <c r="C125">
+      <c r="E125">
         <f>Transportation_Services_Index_a!AX125</f>
         <v>109.9</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <f>Transportation_Services_Index_a!AZ125</f>
         <v>107.5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <f>Transportation_Services_Index_a!B126</f>
         <v>40299</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
+        <v>125</v>
+      </c>
+      <c r="C126" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.4166666666667</v>
+      </c>
+      <c r="D126">
         <f>Transportation_Services_Index_a!AV126</f>
         <v>106.5</v>
       </c>
-      <c r="C126">
+      <c r="E126">
         <f>Transportation_Services_Index_a!AX126</f>
         <v>111.5</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <f>Transportation_Services_Index_a!AZ126</f>
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <f>Transportation_Services_Index_a!B127</f>
         <v>40330</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="4">
+        <v>126</v>
+      </c>
+      <c r="C127" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.5</v>
+      </c>
+      <c r="D127">
         <f>Transportation_Services_Index_a!AV127</f>
         <v>106.7</v>
       </c>
-      <c r="C127">
+      <c r="E127">
         <f>Transportation_Services_Index_a!AX127</f>
         <v>112.2</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <f>Transportation_Services_Index_a!AZ127</f>
         <v>108.4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <f>Transportation_Services_Index_a!B128</f>
         <v>40360</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
+        <v>127</v>
+      </c>
+      <c r="C128" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.5833333333333</v>
+      </c>
+      <c r="D128">
         <f>Transportation_Services_Index_a!AV128</f>
         <v>107.1</v>
       </c>
-      <c r="C128">
+      <c r="E128">
         <f>Transportation_Services_Index_a!AX128</f>
         <v>112.2</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <f>Transportation_Services_Index_a!AZ128</f>
         <v>108.7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <f>Transportation_Services_Index_a!B129</f>
         <v>40391</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="4">
+        <v>128</v>
+      </c>
+      <c r="C129" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.6666666666667</v>
+      </c>
+      <c r="D129">
         <f>Transportation_Services_Index_a!AV129</f>
         <v>106.9</v>
       </c>
-      <c r="C129">
+      <c r="E129">
         <f>Transportation_Services_Index_a!AX129</f>
         <v>112.9</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <f>Transportation_Services_Index_a!AZ129</f>
         <v>108.8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <f>Transportation_Services_Index_a!B130</f>
         <v>40422</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="4">
+        <v>129</v>
+      </c>
+      <c r="C130" s="4">
+        <f t="shared" si="1"/>
+        <v>2010.75</v>
+      </c>
+      <c r="D130">
         <f>Transportation_Services_Index_a!AV130</f>
         <v>107.4</v>
       </c>
-      <c r="C130">
+      <c r="E130">
         <f>Transportation_Services_Index_a!AX130</f>
         <v>113.2</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <f>Transportation_Services_Index_a!AZ130</f>
         <v>109.2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <f>Transportation_Services_Index_a!B131</f>
         <v>40452</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="4">
+        <v>130</v>
+      </c>
+      <c r="C131" s="4">
+        <f t="shared" ref="C131:C194" si="2">2000 + B131/12</f>
+        <v>2010.8333333333333</v>
+      </c>
+      <c r="D131">
         <f>Transportation_Services_Index_a!AV131</f>
         <v>108</v>
       </c>
-      <c r="C131">
+      <c r="E131">
         <f>Transportation_Services_Index_a!AX131</f>
         <v>114.6</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <f>Transportation_Services_Index_a!AZ131</f>
         <v>110.1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <f>Transportation_Services_Index_a!B132</f>
         <v>40483</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="4">
+        <v>131</v>
+      </c>
+      <c r="C132" s="4">
+        <f t="shared" si="2"/>
+        <v>2010.9166666666667</v>
+      </c>
+      <c r="D132">
         <f>Transportation_Services_Index_a!AV132</f>
         <v>107.5</v>
       </c>
-      <c r="C132">
+      <c r="E132">
         <f>Transportation_Services_Index_a!AX132</f>
         <v>114</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <f>Transportation_Services_Index_a!AZ132</f>
         <v>109.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <f>Transportation_Services_Index_a!B133</f>
         <v>40513</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="4">
+        <v>132</v>
+      </c>
+      <c r="C133" s="4">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="D133">
         <f>Transportation_Services_Index_a!AV133</f>
         <v>109</v>
       </c>
-      <c r="C133">
+      <c r="E133">
         <f>Transportation_Services_Index_a!AX133</f>
         <v>112.9</v>
       </c>
-      <c r="D133">
+      <c r="F133">
         <f>Transportation_Services_Index_a!AZ133</f>
         <v>110.2</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <f>Transportation_Services_Index_a!B134</f>
         <v>40544</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="4">
+        <v>133</v>
+      </c>
+      <c r="C134" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.0833333333333</v>
+      </c>
+      <c r="D134">
         <f>Transportation_Services_Index_a!AV134</f>
         <v>110.3</v>
       </c>
-      <c r="C134">
+      <c r="E134">
         <f>Transportation_Services_Index_a!AX134</f>
         <v>113.8</v>
       </c>
-      <c r="D134">
+      <c r="F134">
         <f>Transportation_Services_Index_a!AZ134</f>
         <v>111.3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <f>Transportation_Services_Index_a!B135</f>
         <v>40575</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="4">
+        <v>134</v>
+      </c>
+      <c r="C135" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.1666666666667</v>
+      </c>
+      <c r="D135">
         <f>Transportation_Services_Index_a!AV135</f>
         <v>109.7</v>
       </c>
-      <c r="C135">
+      <c r="E135">
         <f>Transportation_Services_Index_a!AX135</f>
         <v>113.3</v>
       </c>
-      <c r="D135">
+      <c r="F135">
         <f>Transportation_Services_Index_a!AZ135</f>
         <v>110.8</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <f>Transportation_Services_Index_a!B136</f>
         <v>40603</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="4">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.25</v>
+      </c>
+      <c r="D136">
         <f>Transportation_Services_Index_a!AV136</f>
         <v>111.1</v>
       </c>
-      <c r="C136">
+      <c r="E136">
         <f>Transportation_Services_Index_a!AX136</f>
         <v>113.7</v>
       </c>
-      <c r="D136">
+      <c r="F136">
         <f>Transportation_Services_Index_a!AZ136</f>
         <v>111.9</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <f>Transportation_Services_Index_a!B137</f>
         <v>40634</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="4">
+        <v>136</v>
+      </c>
+      <c r="C137" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.3333333333333</v>
+      </c>
+      <c r="D137">
         <f>Transportation_Services_Index_a!AV137</f>
         <v>110.5</v>
       </c>
-      <c r="C137">
+      <c r="E137">
         <f>Transportation_Services_Index_a!AX137</f>
         <v>113.8</v>
       </c>
-      <c r="D137">
+      <c r="F137">
         <f>Transportation_Services_Index_a!AZ137</f>
         <v>111.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <f>Transportation_Services_Index_a!B138</f>
         <v>40664</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="4">
+        <v>137</v>
+      </c>
+      <c r="C138" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.4166666666667</v>
+      </c>
+      <c r="D138">
         <f>Transportation_Services_Index_a!AV138</f>
         <v>108.7</v>
       </c>
-      <c r="C138">
+      <c r="E138">
         <f>Transportation_Services_Index_a!AX138</f>
         <v>115</v>
       </c>
-      <c r="D138">
+      <c r="F138">
         <f>Transportation_Services_Index_a!AZ138</f>
         <v>110.7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <f>Transportation_Services_Index_a!B139</f>
         <v>40695</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="4">
+        <v>138</v>
+      </c>
+      <c r="C139" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.5</v>
+      </c>
+      <c r="D139">
         <f>Transportation_Services_Index_a!AV139</f>
         <v>110.6</v>
       </c>
-      <c r="C139">
+      <c r="E139">
         <f>Transportation_Services_Index_a!AX139</f>
         <v>114.3</v>
       </c>
-      <c r="D139">
+      <c r="F139">
         <f>Transportation_Services_Index_a!AZ139</f>
         <v>111.7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <f>Transportation_Services_Index_a!B140</f>
         <v>40725</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
+        <v>139</v>
+      </c>
+      <c r="C140" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.5833333333333</v>
+      </c>
+      <c r="D140">
         <f>Transportation_Services_Index_a!AV140</f>
         <v>110.4</v>
       </c>
-      <c r="C140">
+      <c r="E140">
         <f>Transportation_Services_Index_a!AX140</f>
         <v>115.2</v>
       </c>
-      <c r="D140">
+      <c r="F140">
         <f>Transportation_Services_Index_a!AZ140</f>
         <v>111.9</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <f>Transportation_Services_Index_a!B141</f>
         <v>40756</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="4">
+        <v>140</v>
+      </c>
+      <c r="C141" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.6666666666667</v>
+      </c>
+      <c r="D141">
         <f>Transportation_Services_Index_a!AV141</f>
         <v>110.9</v>
       </c>
-      <c r="C141">
+      <c r="E141">
         <f>Transportation_Services_Index_a!AX141</f>
         <v>112.8</v>
       </c>
-      <c r="D141">
+      <c r="F141">
         <f>Transportation_Services_Index_a!AZ141</f>
         <v>111.4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <f>Transportation_Services_Index_a!B142</f>
         <v>40787</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="4">
+        <v>141</v>
+      </c>
+      <c r="C142" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.75</v>
+      </c>
+      <c r="D142">
         <f>Transportation_Services_Index_a!AV142</f>
         <v>111.4</v>
       </c>
-      <c r="C142">
+      <c r="E142">
         <f>Transportation_Services_Index_a!AX142</f>
         <v>114.8</v>
       </c>
-      <c r="D142">
+      <c r="F142">
         <f>Transportation_Services_Index_a!AZ142</f>
         <v>112.4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <f>Transportation_Services_Index_a!B143</f>
         <v>40817</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="4">
+        <v>142</v>
+      </c>
+      <c r="C143" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.8333333333333</v>
+      </c>
+      <c r="D143">
         <f>Transportation_Services_Index_a!AV143</f>
         <v>111.7</v>
       </c>
-      <c r="C143">
+      <c r="E143">
         <f>Transportation_Services_Index_a!AX143</f>
         <v>115.5</v>
       </c>
-      <c r="D143">
+      <c r="F143">
         <f>Transportation_Services_Index_a!AZ143</f>
         <v>112.8</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <f>Transportation_Services_Index_a!B144</f>
         <v>40848</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="4">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4">
+        <f t="shared" si="2"/>
+        <v>2011.9166666666667</v>
+      </c>
+      <c r="D144">
         <f>Transportation_Services_Index_a!AV144</f>
         <v>112</v>
       </c>
-      <c r="C144">
+      <c r="E144">
         <f>Transportation_Services_Index_a!AX144</f>
         <v>115.3</v>
       </c>
-      <c r="D144">
+      <c r="F144">
         <f>Transportation_Services_Index_a!AZ144</f>
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <f>Transportation_Services_Index_a!B145</f>
         <v>40878</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="4">
+        <v>144</v>
+      </c>
+      <c r="C145" s="4">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="D145">
         <f>Transportation_Services_Index_a!AV145</f>
         <v>115.1</v>
       </c>
-      <c r="C145">
+      <c r="E145">
         <f>Transportation_Services_Index_a!AX145</f>
         <v>115.9</v>
       </c>
-      <c r="D145">
+      <c r="F145">
         <f>Transportation_Services_Index_a!AZ145</f>
         <v>115.3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <f>Transportation_Services_Index_a!B146</f>
         <v>40909</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="4">
+        <v>145</v>
+      </c>
+      <c r="C146" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.0833333333333</v>
+      </c>
+      <c r="D146">
         <f>Transportation_Services_Index_a!AV146</f>
         <v>111.5</v>
       </c>
-      <c r="C146">
+      <c r="E146">
         <f>Transportation_Services_Index_a!AX146</f>
         <v>115.7</v>
       </c>
-      <c r="D146">
+      <c r="F146">
         <f>Transportation_Services_Index_a!AZ146</f>
         <v>112.8</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <f>Transportation_Services_Index_a!B147</f>
         <v>40940</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="4">
+        <v>146</v>
+      </c>
+      <c r="C147" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.1666666666667</v>
+      </c>
+      <c r="D147">
         <f>Transportation_Services_Index_a!AV147</f>
         <v>112</v>
       </c>
-      <c r="C147">
+      <c r="E147">
         <f>Transportation_Services_Index_a!AX147</f>
         <v>116.7</v>
       </c>
-      <c r="D147">
+      <c r="F147">
         <f>Transportation_Services_Index_a!AZ147</f>
         <v>113.4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <f>Transportation_Services_Index_a!B148</f>
         <v>40969</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="4">
+        <v>147</v>
+      </c>
+      <c r="C148" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.25</v>
+      </c>
+      <c r="D148">
         <f>Transportation_Services_Index_a!AV148</f>
         <v>111.9</v>
       </c>
-      <c r="C148">
+      <c r="E148">
         <f>Transportation_Services_Index_a!AX148</f>
         <v>116</v>
       </c>
-      <c r="D148">
+      <c r="F148">
         <f>Transportation_Services_Index_a!AZ148</f>
         <v>113.2</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <f>Transportation_Services_Index_a!B149</f>
         <v>41000</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="4">
+        <v>148</v>
+      </c>
+      <c r="C149" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.3333333333333</v>
+      </c>
+      <c r="D149">
         <f>Transportation_Services_Index_a!AV149</f>
         <v>112.1</v>
       </c>
-      <c r="C149">
+      <c r="E149">
         <f>Transportation_Services_Index_a!AX149</f>
         <v>115.5</v>
       </c>
-      <c r="D149">
+      <c r="F149">
         <f>Transportation_Services_Index_a!AZ149</f>
         <v>113.1</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <f>Transportation_Services_Index_a!B150</f>
         <v>41030</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="4">
+        <v>149</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.4166666666667</v>
+      </c>
+      <c r="D150">
         <f>Transportation_Services_Index_a!AV150</f>
         <v>113</v>
       </c>
-      <c r="C150">
+      <c r="E150">
         <f>Transportation_Services_Index_a!AX150</f>
         <v>115.1</v>
       </c>
-      <c r="D150">
+      <c r="F150">
         <f>Transportation_Services_Index_a!AZ150</f>
         <v>113.6</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <f>Transportation_Services_Index_a!B151</f>
         <v>41061</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="4">
+        <v>150</v>
+      </c>
+      <c r="C151" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.5</v>
+      </c>
+      <c r="D151">
         <f>Transportation_Services_Index_a!AV151</f>
         <v>113.9</v>
       </c>
-      <c r="C151">
+      <c r="E151">
         <f>Transportation_Services_Index_a!AX151</f>
         <v>115.3</v>
       </c>
-      <c r="D151">
+      <c r="F151">
         <f>Transportation_Services_Index_a!AZ151</f>
         <v>114.3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <f>Transportation_Services_Index_a!B152</f>
         <v>41091</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="4">
+        <v>151</v>
+      </c>
+      <c r="C152" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.5833333333333</v>
+      </c>
+      <c r="D152">
         <f>Transportation_Services_Index_a!AV152</f>
         <v>113.5</v>
       </c>
-      <c r="C152">
+      <c r="E152">
         <f>Transportation_Services_Index_a!AX152</f>
         <v>115.2</v>
       </c>
-      <c r="D152">
+      <c r="F152">
         <f>Transportation_Services_Index_a!AZ152</f>
         <v>114</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <f>Transportation_Services_Index_a!B153</f>
         <v>41122</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="4">
+        <v>152</v>
+      </c>
+      <c r="C153" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.6666666666667</v>
+      </c>
+      <c r="D153">
         <f>Transportation_Services_Index_a!AV153</f>
         <v>112.9</v>
       </c>
-      <c r="C153">
+      <c r="E153">
         <f>Transportation_Services_Index_a!AX153</f>
         <v>115.6</v>
       </c>
-      <c r="D153">
+      <c r="F153">
         <f>Transportation_Services_Index_a!AZ153</f>
         <v>113.7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <f>Transportation_Services_Index_a!B154</f>
         <v>41153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="4">
+        <v>153</v>
+      </c>
+      <c r="C154" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.75</v>
+      </c>
+      <c r="D154">
         <f>Transportation_Services_Index_a!AV154</f>
         <v>112.2</v>
       </c>
-      <c r="C154">
+      <c r="E154">
         <f>Transportation_Services_Index_a!AX154</f>
         <v>115.9</v>
       </c>
-      <c r="D154">
+      <c r="F154">
         <f>Transportation_Services_Index_a!AZ154</f>
         <v>113.3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <f>Transportation_Services_Index_a!B155</f>
         <v>41183</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="4">
+        <v>154</v>
+      </c>
+      <c r="C155" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.8333333333333</v>
+      </c>
+      <c r="D155">
         <f>Transportation_Services_Index_a!AV155</f>
         <v>110.6</v>
       </c>
-      <c r="C155">
+      <c r="E155">
         <f>Transportation_Services_Index_a!AX155</f>
         <v>113.8</v>
       </c>
-      <c r="D155">
+      <c r="F155">
         <f>Transportation_Services_Index_a!AZ155</f>
         <v>111.5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <f>Transportation_Services_Index_a!B156</f>
         <v>41214</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="4">
+        <v>155</v>
+      </c>
+      <c r="C156" s="4">
+        <f t="shared" si="2"/>
+        <v>2012.9166666666667</v>
+      </c>
+      <c r="D156">
         <f>Transportation_Services_Index_a!AV156</f>
         <v>112.2</v>
       </c>
-      <c r="C156">
+      <c r="E156">
         <f>Transportation_Services_Index_a!AX156</f>
         <v>115.4</v>
       </c>
-      <c r="D156">
+      <c r="F156">
         <f>Transportation_Services_Index_a!AZ156</f>
         <v>113.2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <f>Transportation_Services_Index_a!B157</f>
         <v>41244</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="4">
+        <v>156</v>
+      </c>
+      <c r="C157" s="4">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="D157">
         <f>Transportation_Services_Index_a!AV157</f>
         <v>112.3</v>
       </c>
-      <c r="C157">
+      <c r="E157">
         <f>Transportation_Services_Index_a!AX157</f>
         <v>116.4</v>
       </c>
-      <c r="D157">
+      <c r="F157">
         <f>Transportation_Services_Index_a!AZ157</f>
         <v>113.6</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <f>Transportation_Services_Index_a!B158</f>
         <v>41275</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="4">
+        <v>157</v>
+      </c>
+      <c r="C158" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.0833333333333</v>
+      </c>
+      <c r="D158">
         <f>Transportation_Services_Index_a!AV158</f>
         <v>114.5</v>
       </c>
-      <c r="C158">
+      <c r="E158">
         <f>Transportation_Services_Index_a!AX158</f>
         <v>117.5</v>
       </c>
-      <c r="D158">
+      <c r="F158">
         <f>Transportation_Services_Index_a!AZ158</f>
         <v>115.4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <f>Transportation_Services_Index_a!B159</f>
         <v>41306</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="4">
+        <v>158</v>
+      </c>
+      <c r="C159" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.1666666666667</v>
+      </c>
+      <c r="D159">
         <f>Transportation_Services_Index_a!AV159</f>
         <v>116</v>
       </c>
-      <c r="C159">
+      <c r="E159">
         <f>Transportation_Services_Index_a!AX159</f>
         <v>118.3</v>
       </c>
-      <c r="D159">
+      <c r="F159">
         <f>Transportation_Services_Index_a!AZ159</f>
         <v>116.6</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <f>Transportation_Services_Index_a!B160</f>
         <v>41334</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="4">
+        <v>159</v>
+      </c>
+      <c r="C160" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.25</v>
+      </c>
+      <c r="D160">
         <f>Transportation_Services_Index_a!AV160</f>
         <v>116</v>
       </c>
-      <c r="C160">
+      <c r="E160">
         <f>Transportation_Services_Index_a!AX160</f>
         <v>116.1</v>
       </c>
-      <c r="D160">
+      <c r="F160">
         <f>Transportation_Services_Index_a!AZ160</f>
         <v>115.9</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <f>Transportation_Services_Index_a!B161</f>
         <v>41365</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="4">
+        <v>160</v>
+      </c>
+      <c r="C161" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.3333333333333</v>
+      </c>
+      <c r="D161">
         <f>Transportation_Services_Index_a!AV161</f>
         <v>114.9</v>
       </c>
-      <c r="C161">
+      <c r="E161">
         <f>Transportation_Services_Index_a!AX161</f>
         <v>117.3</v>
       </c>
-      <c r="D161">
+      <c r="F161">
         <f>Transportation_Services_Index_a!AZ161</f>
         <v>115.6</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <f>Transportation_Services_Index_a!B162</f>
         <v>41395</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="4">
+        <v>161</v>
+      </c>
+      <c r="C162" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.4166666666667</v>
+      </c>
+      <c r="D162">
         <f>Transportation_Services_Index_a!AV162</f>
         <v>116</v>
       </c>
-      <c r="C162">
+      <c r="E162">
         <f>Transportation_Services_Index_a!AX162</f>
         <v>116.7</v>
       </c>
-      <c r="D162">
+      <c r="F162">
         <f>Transportation_Services_Index_a!AZ162</f>
         <v>116.1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <f>Transportation_Services_Index_a!B163</f>
         <v>41426</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="4">
+        <v>162</v>
+      </c>
+      <c r="C163" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.5</v>
+      </c>
+      <c r="D163">
         <f>Transportation_Services_Index_a!AV163</f>
         <v>116.5</v>
       </c>
-      <c r="C163">
+      <c r="E163">
         <f>Transportation_Services_Index_a!AX163</f>
         <v>117.8</v>
       </c>
-      <c r="D163">
+      <c r="F163">
         <f>Transportation_Services_Index_a!AZ163</f>
         <v>116.8</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <f>Transportation_Services_Index_a!B164</f>
         <v>41456</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="4">
+        <v>163</v>
+      </c>
+      <c r="C164" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.5833333333333</v>
+      </c>
+      <c r="D164">
         <f>Transportation_Services_Index_a!AV164</f>
         <v>116.1</v>
       </c>
-      <c r="C164">
+      <c r="E164">
         <f>Transportation_Services_Index_a!AX164</f>
         <v>117.2</v>
       </c>
-      <c r="D164">
+      <c r="F164">
         <f>Transportation_Services_Index_a!AZ164</f>
         <v>116.4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <f>Transportation_Services_Index_a!B165</f>
         <v>41487</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="4">
+        <v>164</v>
+      </c>
+      <c r="C165" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.6666666666667</v>
+      </c>
+      <c r="D165">
         <f>Transportation_Services_Index_a!AV165</f>
         <v>116.7</v>
       </c>
-      <c r="C165">
+      <c r="E165">
         <f>Transportation_Services_Index_a!AX165</f>
         <v>117.7</v>
       </c>
-      <c r="D165">
+      <c r="F165">
         <f>Transportation_Services_Index_a!AZ165</f>
         <v>116.9</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <f>Transportation_Services_Index_a!B166</f>
         <v>41518</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="4">
+        <v>165</v>
+      </c>
+      <c r="C166" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.75</v>
+      </c>
+      <c r="D166">
         <f>Transportation_Services_Index_a!AV166</f>
         <v>116.7</v>
       </c>
-      <c r="C166">
+      <c r="E166">
         <f>Transportation_Services_Index_a!AX166</f>
         <v>117.5</v>
       </c>
-      <c r="D166">
+      <c r="F166">
         <f>Transportation_Services_Index_a!AZ166</f>
         <v>116.9</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <f>Transportation_Services_Index_a!B167</f>
         <v>41548</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="4">
+        <v>166</v>
+      </c>
+      <c r="C167" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.8333333333333</v>
+      </c>
+      <c r="D167">
         <f>Transportation_Services_Index_a!AV167</f>
         <v>116.7</v>
       </c>
-      <c r="C167">
+      <c r="E167">
         <f>Transportation_Services_Index_a!AX167</f>
         <v>117.7</v>
       </c>
-      <c r="D167">
+      <c r="F167">
         <f>Transportation_Services_Index_a!AZ167</f>
         <v>116.9</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <f>Transportation_Services_Index_a!B168</f>
         <v>41579</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="4">
+        <v>167</v>
+      </c>
+      <c r="C168" s="4">
+        <f t="shared" si="2"/>
+        <v>2013.9166666666667</v>
+      </c>
+      <c r="D168">
         <f>Transportation_Services_Index_a!AV168</f>
         <v>119</v>
       </c>
-      <c r="C168">
+      <c r="E168">
         <f>Transportation_Services_Index_a!AX168</f>
         <v>119.4</v>
       </c>
-      <c r="D168">
+      <c r="F168">
         <f>Transportation_Services_Index_a!AZ168</f>
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <f>Transportation_Services_Index_a!B169</f>
         <v>41609</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="4">
+        <v>168</v>
+      </c>
+      <c r="C169" s="4">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="D169">
         <f>Transportation_Services_Index_a!AV169</f>
         <v>117.8</v>
       </c>
-      <c r="C169">
+      <c r="E169">
         <f>Transportation_Services_Index_a!AX169</f>
         <v>117.6</v>
       </c>
-      <c r="D169">
+      <c r="F169">
         <f>Transportation_Services_Index_a!AZ169</f>
         <v>117.6</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <f>Transportation_Services_Index_a!B170</f>
         <v>41640</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="4">
+        <v>169</v>
+      </c>
+      <c r="C170" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.0833333333333</v>
+      </c>
+      <c r="D170">
         <f>Transportation_Services_Index_a!AV170</f>
         <v>116.3</v>
       </c>
-      <c r="C170">
+      <c r="E170">
         <f>Transportation_Services_Index_a!AX170</f>
         <v>117.7</v>
       </c>
-      <c r="D170">
+      <c r="F170">
         <f>Transportation_Services_Index_a!AZ170</f>
         <v>116.6</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <f>Transportation_Services_Index_a!B171</f>
         <v>41671</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="4">
+        <v>170</v>
+      </c>
+      <c r="C171" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.1666666666667</v>
+      </c>
+      <c r="D171">
         <f>Transportation_Services_Index_a!AV171</f>
         <v>118.2</v>
       </c>
-      <c r="C171">
+      <c r="E171">
         <f>Transportation_Services_Index_a!AX171</f>
         <v>118.9</v>
       </c>
-      <c r="D171">
+      <c r="F171">
         <f>Transportation_Services_Index_a!AZ171</f>
         <v>118.3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <f>Transportation_Services_Index_a!B172</f>
         <v>41699</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="4">
+        <v>171</v>
+      </c>
+      <c r="C172" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.25</v>
+      </c>
+      <c r="D172">
         <f>Transportation_Services_Index_a!AV172</f>
         <v>120.1</v>
       </c>
-      <c r="C172">
+      <c r="E172">
         <f>Transportation_Services_Index_a!AX172</f>
         <v>120.1</v>
       </c>
-      <c r="D172">
+      <c r="F172">
         <f>Transportation_Services_Index_a!AZ172</f>
         <v>120</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <f>Transportation_Services_Index_a!B173</f>
         <v>41730</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="4">
+        <v>172</v>
+      </c>
+      <c r="C173" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.3333333333333</v>
+      </c>
+      <c r="D173">
         <f>Transportation_Services_Index_a!AV173</f>
         <v>120.5</v>
       </c>
-      <c r="C173">
+      <c r="E173">
         <f>Transportation_Services_Index_a!AX173</f>
         <v>120</v>
       </c>
-      <c r="D173">
+      <c r="F173">
         <f>Transportation_Services_Index_a!AZ173</f>
         <v>120.2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <f>Transportation_Services_Index_a!B174</f>
         <v>41760</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="4">
+        <v>173</v>
+      </c>
+      <c r="C174" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.4166666666667</v>
+      </c>
+      <c r="D174">
         <f>Transportation_Services_Index_a!AV174</f>
         <v>121.1</v>
       </c>
-      <c r="C174">
+      <c r="E174">
         <f>Transportation_Services_Index_a!AX174</f>
         <v>120.5</v>
       </c>
-      <c r="D174">
+      <c r="F174">
         <f>Transportation_Services_Index_a!AZ174</f>
         <v>120.8</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <f>Transportation_Services_Index_a!B175</f>
         <v>41791</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="4">
+        <v>174</v>
+      </c>
+      <c r="C175" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.5</v>
+      </c>
+      <c r="D175">
         <f>Transportation_Services_Index_a!AV175</f>
         <v>119.8</v>
       </c>
-      <c r="C175">
+      <c r="E175">
         <f>Transportation_Services_Index_a!AX175</f>
         <v>119.4</v>
       </c>
-      <c r="D175">
+      <c r="F175">
         <f>Transportation_Services_Index_a!AZ175</f>
         <v>119.5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <f>Transportation_Services_Index_a!B176</f>
         <v>41821</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="4">
+        <v>175</v>
+      </c>
+      <c r="C176" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.5833333333333</v>
+      </c>
+      <c r="D176">
         <f>Transportation_Services_Index_a!AV176</f>
         <v>120.5</v>
       </c>
-      <c r="C176">
+      <c r="E176">
         <f>Transportation_Services_Index_a!AX176</f>
         <v>120</v>
       </c>
-      <c r="D176">
+      <c r="F176">
         <f>Transportation_Services_Index_a!AZ176</f>
         <v>120.2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <f>Transportation_Services_Index_a!B177</f>
         <v>41852</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="4">
+        <v>176</v>
+      </c>
+      <c r="C177" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.6666666666667</v>
+      </c>
+      <c r="D177">
         <f>Transportation_Services_Index_a!AV177</f>
         <v>120.8</v>
       </c>
-      <c r="C177">
+      <c r="E177">
         <f>Transportation_Services_Index_a!AX177</f>
         <v>120.3</v>
       </c>
-      <c r="D177">
+      <c r="F177">
         <f>Transportation_Services_Index_a!AZ177</f>
         <v>120.5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <f>Transportation_Services_Index_a!B178</f>
         <v>41883</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
+        <v>177</v>
+      </c>
+      <c r="C178" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.75</v>
+      </c>
+      <c r="D178">
         <f>Transportation_Services_Index_a!AV178</f>
         <v>122</v>
       </c>
-      <c r="C178">
+      <c r="E178">
         <f>Transportation_Services_Index_a!AX178</f>
         <v>120.7</v>
       </c>
-      <c r="D178">
+      <c r="F178">
         <f>Transportation_Services_Index_a!AZ178</f>
         <v>121.4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <f>Transportation_Services_Index_a!B179</f>
         <v>41913</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="4">
+        <v>178</v>
+      </c>
+      <c r="C179" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.8333333333333</v>
+      </c>
+      <c r="D179">
         <f>Transportation_Services_Index_a!AV179</f>
         <v>122.6</v>
       </c>
-      <c r="C179">
+      <c r="E179">
         <f>Transportation_Services_Index_a!AX179</f>
         <v>120</v>
       </c>
-      <c r="D179">
+      <c r="F179">
         <f>Transportation_Services_Index_a!AZ179</f>
         <v>121.6</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <f>Transportation_Services_Index_a!B180</f>
         <v>41944</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="4">
+        <v>179</v>
+      </c>
+      <c r="C180" s="4">
+        <f t="shared" si="2"/>
+        <v>2014.9166666666667</v>
+      </c>
+      <c r="D180">
         <f>Transportation_Services_Index_a!AV180</f>
         <v>123.4</v>
       </c>
-      <c r="C180">
+      <c r="E180">
         <f>Transportation_Services_Index_a!AX180</f>
         <v>120.2</v>
       </c>
-      <c r="D180">
+      <c r="F180">
         <f>Transportation_Services_Index_a!AZ180</f>
         <v>122.2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <f>Transportation_Services_Index_a!B181</f>
         <v>41974</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="4">
+        <v>180</v>
+      </c>
+      <c r="C181" s="4">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="D181">
         <f>Transportation_Services_Index_a!AV181</f>
         <v>123.2</v>
       </c>
-      <c r="C181">
+      <c r="E181">
         <f>Transportation_Services_Index_a!AX181</f>
         <v>121</v>
       </c>
-      <c r="D181">
+      <c r="F181">
         <f>Transportation_Services_Index_a!AZ181</f>
         <v>122.3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <f>Transportation_Services_Index_a!B182</f>
         <v>42005</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="4">
+        <v>181</v>
+      </c>
+      <c r="C182" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.0833333333333</v>
+      </c>
+      <c r="D182">
         <f>Transportation_Services_Index_a!AV182</f>
         <v>123</v>
       </c>
-      <c r="C182">
+      <c r="E182">
         <f>Transportation_Services_Index_a!AX182</f>
         <v>120.5</v>
       </c>
-      <c r="D182">
+      <c r="F182">
         <f>Transportation_Services_Index_a!AZ182</f>
         <v>122</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <f>Transportation_Services_Index_a!B183</f>
         <v>42036</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="4">
+        <v>182</v>
+      </c>
+      <c r="C183" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.1666666666667</v>
+      </c>
+      <c r="D183">
         <f>Transportation_Services_Index_a!AV183</f>
         <v>122.3</v>
       </c>
-      <c r="C183">
+      <c r="E183">
         <f>Transportation_Services_Index_a!AX183</f>
         <v>120.1</v>
       </c>
-      <c r="D183">
+      <c r="F183">
         <f>Transportation_Services_Index_a!AZ183</f>
         <v>121.4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <f>Transportation_Services_Index_a!B184</f>
         <v>42064</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="4">
+        <v>183</v>
+      </c>
+      <c r="C184" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.25</v>
+      </c>
+      <c r="D184">
         <f>Transportation_Services_Index_a!AV184</f>
         <v>123.1</v>
       </c>
-      <c r="C184">
+      <c r="E184">
         <f>Transportation_Services_Index_a!AX184</f>
         <v>121.5</v>
       </c>
-      <c r="D184">
+      <c r="F184">
         <f>Transportation_Services_Index_a!AZ184</f>
         <v>122.4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <f>Transportation_Services_Index_a!B185</f>
         <v>42095</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="4">
+        <v>184</v>
+      </c>
+      <c r="C185" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.3333333333333</v>
+      </c>
+      <c r="D185">
         <f>Transportation_Services_Index_a!AV185</f>
         <v>122</v>
       </c>
-      <c r="C185">
+      <c r="E185">
         <f>Transportation_Services_Index_a!AX185</f>
         <v>121.5</v>
       </c>
-      <c r="D185">
+      <c r="F185">
         <f>Transportation_Services_Index_a!AZ185</f>
         <v>121.7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <f>Transportation_Services_Index_a!B186</f>
         <v>42125</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="4">
+        <v>185</v>
+      </c>
+      <c r="C186" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.4166666666667</v>
+      </c>
+      <c r="D186">
         <f>Transportation_Services_Index_a!AV186</f>
         <v>122.1</v>
       </c>
-      <c r="C186">
+      <c r="E186">
         <f>Transportation_Services_Index_a!AX186</f>
         <v>121.6</v>
       </c>
-      <c r="D186">
+      <c r="F186">
         <f>Transportation_Services_Index_a!AZ186</f>
         <v>121.8</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <f>Transportation_Services_Index_a!B187</f>
         <v>42156</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="4">
+        <v>186</v>
+      </c>
+      <c r="C187" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.5</v>
+      </c>
+      <c r="D187">
         <f>Transportation_Services_Index_a!AV187</f>
         <v>121.8</v>
       </c>
-      <c r="C187">
+      <c r="E187">
         <f>Transportation_Services_Index_a!AX187</f>
         <v>122.4</v>
       </c>
-      <c r="D187">
+      <c r="F187">
         <f>Transportation_Services_Index_a!AZ187</f>
         <v>121.9</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <f>Transportation_Services_Index_a!B188</f>
         <v>42186</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="4">
+        <v>187</v>
+      </c>
+      <c r="C188" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.5833333333333</v>
+      </c>
+      <c r="D188">
         <f>Transportation_Services_Index_a!AV188</f>
         <v>122.9</v>
       </c>
-      <c r="C188">
+      <c r="E188">
         <f>Transportation_Services_Index_a!AX188</f>
         <v>124.2</v>
       </c>
-      <c r="D188">
+      <c r="F188">
         <f>Transportation_Services_Index_a!AZ188</f>
         <v>123.2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <f>Transportation_Services_Index_a!B189</f>
         <v>42217</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="4">
+        <v>188</v>
+      </c>
+      <c r="C189" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.6666666666667</v>
+      </c>
+      <c r="D189">
         <f>Transportation_Services_Index_a!AV189</f>
         <v>123.4</v>
       </c>
-      <c r="C189">
+      <c r="E189">
         <f>Transportation_Services_Index_a!AX189</f>
         <v>123.2</v>
       </c>
-      <c r="D189">
+      <c r="F189">
         <f>Transportation_Services_Index_a!AZ189</f>
         <v>123.2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <f>Transportation_Services_Index_a!B190</f>
         <v>42248</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="4">
+        <v>189</v>
+      </c>
+      <c r="C190" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.75</v>
+      </c>
+      <c r="D190">
         <f>Transportation_Services_Index_a!AV190</f>
         <v>123.6</v>
       </c>
-      <c r="C190">
+      <c r="E190">
         <f>Transportation_Services_Index_a!AX190</f>
         <v>123.8</v>
       </c>
-      <c r="D190">
+      <c r="F190">
         <f>Transportation_Services_Index_a!AZ190</f>
         <v>123.6</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <f>Transportation_Services_Index_a!B191</f>
         <v>42278</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="4">
+        <v>190</v>
+      </c>
+      <c r="C191" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.8333333333333</v>
+      </c>
+      <c r="D191">
         <f>Transportation_Services_Index_a!AV191</f>
         <v>122.9</v>
       </c>
-      <c r="C191">
+      <c r="E191">
         <f>Transportation_Services_Index_a!AX191</f>
         <v>124.6</v>
       </c>
-      <c r="D191">
+      <c r="F191">
         <f>Transportation_Services_Index_a!AZ191</f>
         <v>123.4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <f>Transportation_Services_Index_a!B192</f>
         <v>42309</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="4">
+        <v>191</v>
+      </c>
+      <c r="C192" s="4">
+        <f t="shared" si="2"/>
+        <v>2015.9166666666667</v>
+      </c>
+      <c r="D192">
         <f>Transportation_Services_Index_a!AV192</f>
         <v>121.1</v>
       </c>
-      <c r="C192">
+      <c r="E192">
         <f>Transportation_Services_Index_a!AX192</f>
         <v>123.6</v>
       </c>
-      <c r="D192">
+      <c r="F192">
         <f>Transportation_Services_Index_a!AZ192</f>
         <v>121.9</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <f>Transportation_Services_Index_a!B193</f>
         <v>42339</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="4">
+        <v>192</v>
+      </c>
+      <c r="C193" s="4">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="D193">
         <f>Transportation_Services_Index_a!AV193</f>
         <v>120.6</v>
       </c>
-      <c r="C193">
+      <c r="E193">
         <f>Transportation_Services_Index_a!AX193</f>
         <v>124.9</v>
       </c>
-      <c r="D193">
+      <c r="F193">
         <f>Transportation_Services_Index_a!AZ193</f>
         <v>122</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <f>Transportation_Services_Index_a!B194</f>
         <v>42370</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="4">
+        <v>193</v>
+      </c>
+      <c r="C194" s="4">
+        <f t="shared" si="2"/>
+        <v>2016.0833333333333</v>
+      </c>
+      <c r="D194">
         <f>Transportation_Services_Index_a!AV194</f>
         <v>122.5</v>
       </c>
-      <c r="C194">
+      <c r="E194">
         <f>Transportation_Services_Index_a!AX194</f>
         <v>124.2</v>
       </c>
-      <c r="D194">
+      <c r="F194">
         <f>Transportation_Services_Index_a!AZ194</f>
         <v>123</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <f>Transportation_Services_Index_a!B195</f>
         <v>42401</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="4">
+        <v>194</v>
+      </c>
+      <c r="C195" s="4">
+        <f t="shared" ref="C195:C258" si="3">2000 + B195/12</f>
+        <v>2016.1666666666667</v>
+      </c>
+      <c r="D195">
         <f>Transportation_Services_Index_a!AV195</f>
         <v>121.8</v>
       </c>
-      <c r="C195">
+      <c r="E195">
         <f>Transportation_Services_Index_a!AX195</f>
         <v>124.9</v>
       </c>
-      <c r="D195">
+      <c r="F195">
         <f>Transportation_Services_Index_a!AZ195</f>
         <v>122.7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <f>Transportation_Services_Index_a!B196</f>
         <v>42430</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="4">
+        <v>195</v>
+      </c>
+      <c r="C196" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.25</v>
+      </c>
+      <c r="D196">
         <f>Transportation_Services_Index_a!AV196</f>
         <v>120.7</v>
       </c>
-      <c r="C196">
+      <c r="E196">
         <f>Transportation_Services_Index_a!AX196</f>
         <v>123</v>
       </c>
-      <c r="D196">
+      <c r="F196">
         <f>Transportation_Services_Index_a!AZ196</f>
         <v>121.4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <f>Transportation_Services_Index_a!B197</f>
         <v>42461</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="4">
+        <v>196</v>
+      </c>
+      <c r="C197" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.3333333333333</v>
+      </c>
+      <c r="D197">
         <f>Transportation_Services_Index_a!AV197</f>
         <v>123.1</v>
       </c>
-      <c r="C197">
+      <c r="E197">
         <f>Transportation_Services_Index_a!AX197</f>
         <v>124.2</v>
       </c>
-      <c r="D197">
+      <c r="F197">
         <f>Transportation_Services_Index_a!AZ197</f>
         <v>123.4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <f>Transportation_Services_Index_a!B198</f>
         <v>42491</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="4">
+        <v>197</v>
+      </c>
+      <c r="C198" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.4166666666667</v>
+      </c>
+      <c r="D198">
         <f>Transportation_Services_Index_a!AV198</f>
         <v>122.4</v>
       </c>
-      <c r="C198">
+      <c r="E198">
         <f>Transportation_Services_Index_a!AX198</f>
         <v>124.7</v>
       </c>
-      <c r="D198">
+      <c r="F198">
         <f>Transportation_Services_Index_a!AZ198</f>
         <v>123.1</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <f>Transportation_Services_Index_a!B199</f>
         <v>42522</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="4">
+        <v>198</v>
+      </c>
+      <c r="C199" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.5</v>
+      </c>
+      <c r="D199">
         <f>Transportation_Services_Index_a!AV199</f>
         <v>123.4</v>
       </c>
-      <c r="C199">
+      <c r="E199">
         <f>Transportation_Services_Index_a!AX199</f>
         <v>125.1</v>
       </c>
-      <c r="D199">
+      <c r="F199">
         <f>Transportation_Services_Index_a!AZ199</f>
         <v>123.9</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <f>Transportation_Services_Index_a!B200</f>
         <v>42552</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="4">
+        <v>199</v>
+      </c>
+      <c r="C200" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.5833333333333</v>
+      </c>
+      <c r="D200">
         <f>Transportation_Services_Index_a!AV200</f>
         <v>125.7</v>
       </c>
-      <c r="C200">
+      <c r="E200">
         <f>Transportation_Services_Index_a!AX200</f>
         <v>124.3</v>
       </c>
-      <c r="D200">
+      <c r="F200">
         <f>Transportation_Services_Index_a!AZ200</f>
         <v>125.1</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <f>Transportation_Services_Index_a!B201</f>
         <v>42583</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="4">
+        <v>200</v>
+      </c>
+      <c r="C201" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.6666666666667</v>
+      </c>
+      <c r="D201">
         <f>Transportation_Services_Index_a!AV201</f>
         <v>123.8</v>
       </c>
-      <c r="C201">
+      <c r="E201">
         <f>Transportation_Services_Index_a!AX201</f>
         <v>123.9</v>
       </c>
-      <c r="D201">
+      <c r="F201">
         <f>Transportation_Services_Index_a!AZ201</f>
         <v>123.7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <f>Transportation_Services_Index_a!B202</f>
         <v>42614</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="4">
+        <v>201</v>
+      </c>
+      <c r="C202" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.75</v>
+      </c>
+      <c r="D202">
         <f>Transportation_Services_Index_a!AV202</f>
         <v>122.6</v>
       </c>
-      <c r="C202">
+      <c r="E202">
         <f>Transportation_Services_Index_a!AX202</f>
         <v>126.3</v>
       </c>
-      <c r="D202">
+      <c r="F202">
         <f>Transportation_Services_Index_a!AZ202</f>
         <v>123.8</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <f>Transportation_Services_Index_a!B203</f>
         <v>42644</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="4">
+        <v>202</v>
+      </c>
+      <c r="C203" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.8333333333333</v>
+      </c>
+      <c r="D203">
         <f>Transportation_Services_Index_a!AV203</f>
         <v>123.2</v>
       </c>
-      <c r="C203">
+      <c r="E203">
         <f>Transportation_Services_Index_a!AX203</f>
         <v>124.1</v>
       </c>
-      <c r="D203">
+      <c r="F203">
         <f>Transportation_Services_Index_a!AZ203</f>
         <v>123.4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <f>Transportation_Services_Index_a!B204</f>
         <v>42675</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="4">
+        <v>203</v>
+      </c>
+      <c r="C204" s="4">
+        <f t="shared" si="3"/>
+        <v>2016.9166666666667</v>
+      </c>
+      <c r="D204">
         <f>Transportation_Services_Index_a!AV204</f>
         <v>123.5</v>
       </c>
-      <c r="C204">
+      <c r="E204">
         <f>Transportation_Services_Index_a!AX204</f>
         <v>125.3</v>
       </c>
-      <c r="D204">
+      <c r="F204">
         <f>Transportation_Services_Index_a!AZ204</f>
         <v>124</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <f>Transportation_Services_Index_a!B205</f>
         <v>42705</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="4">
+        <v>204</v>
+      </c>
+      <c r="C205" s="4">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+      <c r="D205">
         <f>Transportation_Services_Index_a!AV205</f>
         <v>124.7</v>
       </c>
-      <c r="C205">
+      <c r="E205">
         <f>Transportation_Services_Index_a!AX205</f>
         <v>125.9</v>
       </c>
-      <c r="D205">
+      <c r="F205">
         <f>Transportation_Services_Index_a!AZ205</f>
         <v>125</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <f>Transportation_Services_Index_a!B206</f>
         <v>42736</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="4">
+        <v>205</v>
+      </c>
+      <c r="C206" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.0833333333333</v>
+      </c>
+      <c r="D206">
         <f>Transportation_Services_Index_a!AV206</f>
         <v>124</v>
       </c>
-      <c r="C206">
+      <c r="E206">
         <f>Transportation_Services_Index_a!AX206</f>
         <v>127.1</v>
       </c>
-      <c r="D206">
+      <c r="F206">
         <f>Transportation_Services_Index_a!AZ206</f>
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <f>Transportation_Services_Index_a!B207</f>
         <v>42767</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="4">
+        <v>206</v>
+      </c>
+      <c r="C207" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.1666666666667</v>
+      </c>
+      <c r="D207">
         <f>Transportation_Services_Index_a!AV207</f>
         <v>124.9</v>
       </c>
-      <c r="C207">
+      <c r="E207">
         <f>Transportation_Services_Index_a!AX207</f>
         <v>126</v>
       </c>
-      <c r="D207">
+      <c r="F207">
         <f>Transportation_Services_Index_a!AZ207</f>
         <v>125.1</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <f>Transportation_Services_Index_a!B208</f>
         <v>42795</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="4">
+        <v>207</v>
+      </c>
+      <c r="C208" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.25</v>
+      </c>
+      <c r="D208">
         <f>Transportation_Services_Index_a!AV208</f>
         <v>125.1</v>
       </c>
-      <c r="C208">
+      <c r="E208">
         <f>Transportation_Services_Index_a!AX208</f>
         <v>125.3</v>
       </c>
-      <c r="D208">
+      <c r="F208">
         <f>Transportation_Services_Index_a!AZ208</f>
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <f>Transportation_Services_Index_a!B209</f>
         <v>42826</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="4">
+        <v>208</v>
+      </c>
+      <c r="C209" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.3333333333333</v>
+      </c>
+      <c r="D209">
         <f>Transportation_Services_Index_a!AV209</f>
         <v>125.5</v>
       </c>
-      <c r="C209">
+      <c r="E209">
         <f>Transportation_Services_Index_a!AX209</f>
         <v>127.2</v>
       </c>
-      <c r="D209">
+      <c r="F209">
         <f>Transportation_Services_Index_a!AZ209</f>
         <v>126</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <f>Transportation_Services_Index_a!B210</f>
         <v>42856</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="4">
+        <v>209</v>
+      </c>
+      <c r="C210" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.4166666666667</v>
+      </c>
+      <c r="D210">
         <f>Transportation_Services_Index_a!AV210</f>
         <v>126.2</v>
       </c>
-      <c r="C210">
+      <c r="E210">
         <f>Transportation_Services_Index_a!AX210</f>
         <v>126.9</v>
       </c>
-      <c r="D210">
+      <c r="F210">
         <f>Transportation_Services_Index_a!AZ210</f>
         <v>126.3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <f>Transportation_Services_Index_a!B211</f>
         <v>42887</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="4">
+        <v>210</v>
+      </c>
+      <c r="C211" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.5</v>
+      </c>
+      <c r="D211">
         <f>Transportation_Services_Index_a!AV211</f>
         <v>126.3</v>
       </c>
-      <c r="C211">
+      <c r="E211">
         <f>Transportation_Services_Index_a!AX211</f>
         <v>126.6</v>
       </c>
-      <c r="D211">
+      <c r="F211">
         <f>Transportation_Services_Index_a!AZ211</f>
         <v>126.2</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <f>Transportation_Services_Index_a!B212</f>
         <v>42917</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="4">
+        <v>211</v>
+      </c>
+      <c r="C212" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.5833333333333</v>
+      </c>
+      <c r="D212">
         <f>Transportation_Services_Index_a!AV212</f>
         <v>128.69999999999999</v>
       </c>
-      <c r="C212">
+      <c r="E212">
         <f>Transportation_Services_Index_a!AX212</f>
         <v>127.3</v>
       </c>
-      <c r="D212">
+      <c r="F212">
         <f>Transportation_Services_Index_a!AZ212</f>
         <v>128</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <f>Transportation_Services_Index_a!B213</f>
         <v>42948</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="4">
+        <v>212</v>
+      </c>
+      <c r="C213" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.6666666666667</v>
+      </c>
+      <c r="D213">
         <f>Transportation_Services_Index_a!AV213</f>
         <v>129.30000000000001</v>
       </c>
-      <c r="C213">
+      <c r="E213">
         <f>Transportation_Services_Index_a!AX213</f>
         <v>127.2</v>
       </c>
-      <c r="D213">
+      <c r="F213">
         <f>Transportation_Services_Index_a!AZ213</f>
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <f>Transportation_Services_Index_a!B214</f>
         <v>42979</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="4">
+        <v>213</v>
+      </c>
+      <c r="C214" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.75</v>
+      </c>
+      <c r="D214">
         <f>Transportation_Services_Index_a!AV214</f>
         <v>129.1</v>
       </c>
-      <c r="C214">
+      <c r="E214">
         <f>Transportation_Services_Index_a!AX214</f>
         <v>125.6</v>
       </c>
-      <c r="D214">
+      <c r="F214">
         <f>Transportation_Services_Index_a!AZ214</f>
         <v>127.7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <f>Transportation_Services_Index_a!B215</f>
         <v>43009</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="4">
+        <v>214</v>
+      </c>
+      <c r="C215" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.8333333333333</v>
+      </c>
+      <c r="D215">
         <f>Transportation_Services_Index_a!AV215</f>
         <v>130.19999999999999</v>
       </c>
-      <c r="C215">
+      <c r="E215">
         <f>Transportation_Services_Index_a!AX215</f>
         <v>128</v>
       </c>
-      <c r="D215">
+      <c r="F215">
         <f>Transportation_Services_Index_a!AZ215</f>
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <f>Transportation_Services_Index_a!B216</f>
         <v>43040</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="4">
+        <v>215</v>
+      </c>
+      <c r="C216" s="4">
+        <f t="shared" si="3"/>
+        <v>2017.9166666666667</v>
+      </c>
+      <c r="D216">
         <f>Transportation_Services_Index_a!AV216</f>
         <v>132</v>
       </c>
-      <c r="C216">
+      <c r="E216">
         <f>Transportation_Services_Index_a!AX216</f>
         <v>128.4</v>
       </c>
-      <c r="D216">
+      <c r="F216">
         <f>Transportation_Services_Index_a!AZ216</f>
         <v>130.5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <f>Transportation_Services_Index_a!B217</f>
         <v>43070</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="4">
+        <v>216</v>
+      </c>
+      <c r="C217" s="4">
+        <f t="shared" si="3"/>
+        <v>2018</v>
+      </c>
+      <c r="D217">
         <f>Transportation_Services_Index_a!AV217</f>
         <v>133.69999999999999</v>
       </c>
-      <c r="C217">
+      <c r="E217">
         <f>Transportation_Services_Index_a!AX217</f>
         <v>128.1</v>
       </c>
-      <c r="D217">
+      <c r="F217">
         <f>Transportation_Services_Index_a!AZ217</f>
         <v>131.4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <f>Transportation_Services_Index_a!B218</f>
         <v>43101</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="4">
+        <v>217</v>
+      </c>
+      <c r="C218" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.0833333333333</v>
+      </c>
+      <c r="D218">
         <f>Transportation_Services_Index_a!AV218</f>
         <v>131.69999999999999</v>
       </c>
-      <c r="C218">
+      <c r="E218">
         <f>Transportation_Services_Index_a!AX218</f>
         <v>128.5</v>
       </c>
-      <c r="D218">
+      <c r="F218">
         <f>Transportation_Services_Index_a!AZ218</f>
         <v>130.30000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <f>Transportation_Services_Index_a!B219</f>
         <v>43132</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="4">
+        <v>218</v>
+      </c>
+      <c r="C219" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.1666666666667</v>
+      </c>
+      <c r="D219">
         <f>Transportation_Services_Index_a!AV219</f>
         <v>134.19999999999999</v>
       </c>
-      <c r="C219">
+      <c r="E219">
         <f>Transportation_Services_Index_a!AX219</f>
         <v>130.19999999999999</v>
       </c>
-      <c r="D219">
+      <c r="F219">
         <f>Transportation_Services_Index_a!AZ219</f>
         <v>132.5</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <f>Transportation_Services_Index_a!B220</f>
         <v>43160</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="4">
+        <v>219</v>
+      </c>
+      <c r="C220" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.25</v>
+      </c>
+      <c r="D220">
         <f>Transportation_Services_Index_a!AV220</f>
         <v>135.6</v>
       </c>
-      <c r="C220">
+      <c r="E220">
         <f>Transportation_Services_Index_a!AX220</f>
         <v>128.9</v>
       </c>
-      <c r="D220">
+      <c r="F220">
         <f>Transportation_Services_Index_a!AZ220</f>
         <v>132.9</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <f>Transportation_Services_Index_a!B221</f>
         <v>43191</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="4">
+        <v>220</v>
+      </c>
+      <c r="C221" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.3333333333333</v>
+      </c>
+      <c r="D221">
         <f>Transportation_Services_Index_a!AV221</f>
         <v>135.6</v>
       </c>
-      <c r="C221">
+      <c r="E221">
         <f>Transportation_Services_Index_a!AX221</f>
         <v>130</v>
       </c>
-      <c r="D221">
+      <c r="F221">
         <f>Transportation_Services_Index_a!AZ221</f>
         <v>133.30000000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <f>Transportation_Services_Index_a!B222</f>
         <v>43221</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="4">
+        <v>221</v>
+      </c>
+      <c r="C222" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.4166666666667</v>
+      </c>
+      <c r="D222">
         <f>Transportation_Services_Index_a!AV222</f>
         <v>136.6</v>
       </c>
-      <c r="C222">
+      <c r="E222">
         <f>Transportation_Services_Index_a!AX222</f>
         <v>130.6</v>
       </c>
-      <c r="D222">
+      <c r="F222">
         <f>Transportation_Services_Index_a!AZ222</f>
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <f>Transportation_Services_Index_a!B223</f>
         <v>43252</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="4">
+        <v>222</v>
+      </c>
+      <c r="C223" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.5</v>
+      </c>
+      <c r="D223">
         <f>Transportation_Services_Index_a!AV223</f>
         <v>137.4</v>
       </c>
-      <c r="C223">
+      <c r="E223">
         <f>Transportation_Services_Index_a!AX223</f>
         <v>131.5</v>
       </c>
-      <c r="D223">
+      <c r="F223">
         <f>Transportation_Services_Index_a!AZ223</f>
         <v>135.1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <f>Transportation_Services_Index_a!B224</f>
         <v>43282</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="4">
+        <v>223</v>
+      </c>
+      <c r="C224" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.5833333333333</v>
+      </c>
+      <c r="D224">
         <f>Transportation_Services_Index_a!AV224</f>
         <v>136.19999999999999</v>
       </c>
-      <c r="C224">
+      <c r="E224">
         <f>Transportation_Services_Index_a!AX224</f>
         <v>131.30000000000001</v>
       </c>
-      <c r="D224">
+      <c r="F224">
         <f>Transportation_Services_Index_a!AZ224</f>
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <f>Transportation_Services_Index_a!B225</f>
         <v>43313</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="4">
+        <v>224</v>
+      </c>
+      <c r="C225" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.6666666666667</v>
+      </c>
+      <c r="D225">
         <f>Transportation_Services_Index_a!AV225</f>
         <v>136.5</v>
       </c>
-      <c r="C225">
+      <c r="E225">
         <f>Transportation_Services_Index_a!AX225</f>
         <v>131.1</v>
       </c>
-      <c r="D225">
+      <c r="F225">
         <f>Transportation_Services_Index_a!AZ225</f>
         <v>134.30000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <f>Transportation_Services_Index_a!B226</f>
         <v>43344</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="4">
+        <v>225</v>
+      </c>
+      <c r="C226" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.75</v>
+      </c>
+      <c r="D226">
         <f>Transportation_Services_Index_a!AV226</f>
         <v>138.4</v>
       </c>
-      <c r="C226">
+      <c r="E226">
         <f>Transportation_Services_Index_a!AX226</f>
         <v>130.5</v>
       </c>
-      <c r="D226">
+      <c r="F226">
         <f>Transportation_Services_Index_a!AZ226</f>
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <f>Transportation_Services_Index_a!B227</f>
         <v>43374</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="4">
+        <v>226</v>
+      </c>
+      <c r="C227" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.8333333333333</v>
+      </c>
+      <c r="D227">
         <f>Transportation_Services_Index_a!AV227</f>
         <v>139.1</v>
       </c>
-      <c r="C227">
+      <c r="E227">
         <f>Transportation_Services_Index_a!AX227</f>
         <v>132.19999999999999</v>
       </c>
-      <c r="D227">
+      <c r="F227">
         <f>Transportation_Services_Index_a!AZ227</f>
         <v>136.4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <f>Transportation_Services_Index_a!B228</f>
         <v>43405</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="4">
+        <v>227</v>
+      </c>
+      <c r="C228" s="4">
+        <f t="shared" si="3"/>
+        <v>2018.9166666666667</v>
+      </c>
+      <c r="D228">
         <f>Transportation_Services_Index_a!AV228</f>
         <v>139.5</v>
       </c>
-      <c r="C228">
+      <c r="E228">
         <f>Transportation_Services_Index_a!AX228</f>
         <v>131.19999999999999</v>
       </c>
-      <c r="D228">
+      <c r="F228">
         <f>Transportation_Services_Index_a!AZ228</f>
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <f>Transportation_Services_Index_a!B229</f>
         <v>43435</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="4">
+        <v>228</v>
+      </c>
+      <c r="C229" s="4">
+        <f t="shared" si="3"/>
+        <v>2019</v>
+      </c>
+      <c r="D229">
         <f>Transportation_Services_Index_a!AV229</f>
         <v>137.6</v>
       </c>
-      <c r="C229">
+      <c r="E229">
         <f>Transportation_Services_Index_a!AX229</f>
         <v>131.80000000000001</v>
       </c>
-      <c r="D229">
+      <c r="F229">
         <f>Transportation_Services_Index_a!AZ229</f>
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <f>Transportation_Services_Index_a!B230</f>
         <v>43466</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="4">
+        <v>229</v>
+      </c>
+      <c r="C230" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.0833333333333</v>
+      </c>
+      <c r="D230">
         <f>Transportation_Services_Index_a!AV230</f>
         <v>138.69999999999999</v>
       </c>
-      <c r="C230">
+      <c r="E230">
         <f>Transportation_Services_Index_a!AX230</f>
         <v>131.4</v>
       </c>
-      <c r="D230">
+      <c r="F230">
         <f>Transportation_Services_Index_a!AZ230</f>
         <v>135.80000000000001</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <f>Transportation_Services_Index_a!B231</f>
         <v>43497</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="4">
+        <v>230</v>
+      </c>
+      <c r="C231" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.1666666666667</v>
+      </c>
+      <c r="D231">
         <f>Transportation_Services_Index_a!AV231</f>
         <v>137.9</v>
       </c>
-      <c r="C231">
+      <c r="E231">
         <f>Transportation_Services_Index_a!AX231</f>
         <v>132.1</v>
       </c>
-      <c r="D231">
+      <c r="F231">
         <f>Transportation_Services_Index_a!AZ231</f>
         <v>135.6</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <f>Transportation_Services_Index_a!B232</f>
         <v>43525</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="4">
+        <v>231</v>
+      </c>
+      <c r="C232" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.25</v>
+      </c>
+      <c r="D232">
         <f>Transportation_Services_Index_a!AV232</f>
         <v>138</v>
       </c>
-      <c r="C232">
+      <c r="E232">
         <f>Transportation_Services_Index_a!AX232</f>
         <v>134.19999999999999</v>
       </c>
-      <c r="D232">
+      <c r="F232">
         <f>Transportation_Services_Index_a!AZ232</f>
         <v>136.4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <f>Transportation_Services_Index_a!B233</f>
         <v>43556</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="4">
+        <v>232</v>
+      </c>
+      <c r="C233" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.3333333333333</v>
+      </c>
+      <c r="D233">
         <f>Transportation_Services_Index_a!AV233</f>
         <v>139.1</v>
       </c>
-      <c r="C233">
+      <c r="E233">
         <f>Transportation_Services_Index_a!AX233</f>
         <v>134.19999999999999</v>
       </c>
-      <c r="D233">
+      <c r="F233">
         <f>Transportation_Services_Index_a!AZ233</f>
         <v>137.1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <f>Transportation_Services_Index_a!B234</f>
         <v>43586</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="4">
+        <v>233</v>
+      </c>
+      <c r="C234" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.4166666666667</v>
+      </c>
+      <c r="D234">
         <f>Transportation_Services_Index_a!AV234</f>
         <v>139.80000000000001</v>
       </c>
-      <c r="C234">
+      <c r="E234">
         <f>Transportation_Services_Index_a!AX234</f>
         <v>135.1</v>
       </c>
-      <c r="D234">
+      <c r="F234">
         <f>Transportation_Services_Index_a!AZ234</f>
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <f>Transportation_Services_Index_a!B235</f>
         <v>43617</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="4">
+        <v>234</v>
+      </c>
+      <c r="C235" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.5</v>
+      </c>
+      <c r="D235">
         <f>Transportation_Services_Index_a!AV235</f>
         <v>139.30000000000001</v>
       </c>
-      <c r="C235">
+      <c r="E235">
         <f>Transportation_Services_Index_a!AX235</f>
         <v>134.80000000000001</v>
       </c>
-      <c r="D235">
+      <c r="F235">
         <f>Transportation_Services_Index_a!AZ235</f>
         <v>137.5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <f>Transportation_Services_Index_a!B236</f>
         <v>43647</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="4">
+        <v>235</v>
+      </c>
+      <c r="C236" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.5833333333333</v>
+      </c>
+      <c r="D236">
         <f>Transportation_Services_Index_a!AV236</f>
         <v>140.19999999999999</v>
       </c>
-      <c r="C236">
+      <c r="E236">
         <f>Transportation_Services_Index_a!AX236</f>
         <v>134.9</v>
       </c>
-      <c r="D236">
+      <c r="F236">
         <f>Transportation_Services_Index_a!AZ236</f>
         <v>138.1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <f>Transportation_Services_Index_a!B237</f>
         <v>43678</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="4">
+        <v>236</v>
+      </c>
+      <c r="C237" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.6666666666667</v>
+      </c>
+      <c r="D237">
         <f>Transportation_Services_Index_a!AV237</f>
         <v>141.9</v>
       </c>
-      <c r="C237">
+      <c r="E237">
         <f>Transportation_Services_Index_a!AX237</f>
         <v>135.6</v>
       </c>
-      <c r="D237">
+      <c r="F237">
         <f>Transportation_Services_Index_a!AZ237</f>
         <v>139.4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <f>Transportation_Services_Index_a!B238</f>
         <v>43709</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="4">
+        <v>237</v>
+      </c>
+      <c r="C238" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.75</v>
+      </c>
+      <c r="D238">
         <f>Transportation_Services_Index_a!AV238</f>
         <v>138.4</v>
       </c>
-      <c r="C238">
+      <c r="E238">
         <f>Transportation_Services_Index_a!AX238</f>
         <v>136</v>
       </c>
-      <c r="D238">
+      <c r="F238">
         <f>Transportation_Services_Index_a!AZ238</f>
         <v>137.4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <f>Transportation_Services_Index_a!B239</f>
         <v>43739</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="4">
+        <v>238</v>
+      </c>
+      <c r="C239" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.8333333333333</v>
+      </c>
+      <c r="D239">
         <f>Transportation_Services_Index_a!AV239</f>
         <v>138.30000000000001</v>
       </c>
-      <c r="C239">
+      <c r="E239">
         <f>Transportation_Services_Index_a!AX239</f>
         <v>135.19999999999999</v>
       </c>
-      <c r="D239">
+      <c r="F239">
         <f>Transportation_Services_Index_a!AZ239</f>
         <v>137</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <f>Transportation_Services_Index_a!B240</f>
         <v>43770</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="4">
+        <v>239</v>
+      </c>
+      <c r="C240" s="4">
+        <f t="shared" si="3"/>
+        <v>2019.9166666666667</v>
+      </c>
+      <c r="D240">
         <f>Transportation_Services_Index_a!AV240</f>
         <v>138.30000000000001</v>
       </c>
-      <c r="C240">
+      <c r="E240">
         <f>Transportation_Services_Index_a!AX240</f>
         <v>136.30000000000001</v>
       </c>
-      <c r="D240">
+      <c r="F240">
         <f>Transportation_Services_Index_a!AZ240</f>
         <v>137.4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <f>Transportation_Services_Index_a!B241</f>
         <v>43800</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="4">
+        <v>240</v>
+      </c>
+      <c r="C241" s="4">
+        <f t="shared" si="3"/>
+        <v>2020</v>
+      </c>
+      <c r="D241">
         <f>Transportation_Services_Index_a!AV241</f>
         <v>136.69999999999999</v>
       </c>
-      <c r="C241">
+      <c r="E241">
         <f>Transportation_Services_Index_a!AX241</f>
         <v>137.1</v>
       </c>
-      <c r="D241">
+      <c r="F241">
         <f>Transportation_Services_Index_a!AZ241</f>
         <v>136.69999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <f>Transportation_Services_Index_a!B242</f>
         <v>43831</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="4">
+        <v>241</v>
+      </c>
+      <c r="C242" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.0833333333333</v>
+      </c>
+      <c r="D242">
         <f>Transportation_Services_Index_a!AV242</f>
         <v>136.69999999999999</v>
       </c>
-      <c r="C242">
+      <c r="E242">
         <f>Transportation_Services_Index_a!AX242</f>
         <v>137.9</v>
       </c>
-      <c r="D242">
+      <c r="F242">
         <f>Transportation_Services_Index_a!AZ242</f>
         <v>137</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <f>Transportation_Services_Index_a!B243</f>
         <v>43862</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="4">
+        <v>242</v>
+      </c>
+      <c r="C243" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.1666666666667</v>
+      </c>
+      <c r="D243">
         <f>Transportation_Services_Index_a!AV243</f>
         <v>136.4</v>
       </c>
-      <c r="C243">
+      <c r="E243">
         <f>Transportation_Services_Index_a!AX243</f>
         <v>135.9</v>
       </c>
-      <c r="D243">
+      <c r="F243">
         <f>Transportation_Services_Index_a!AZ243</f>
         <v>136.1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <f>Transportation_Services_Index_a!B244</f>
         <v>43891</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="4">
+        <v>243</v>
+      </c>
+      <c r="C244" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.25</v>
+      </c>
+      <c r="D244">
         <f>Transportation_Services_Index_a!AV244</f>
         <v>135</v>
       </c>
-      <c r="C244">
+      <c r="E244">
         <f>Transportation_Services_Index_a!AX244</f>
         <v>69.599999999999994</v>
       </c>
-      <c r="D244">
+      <c r="F244">
         <f>Transportation_Services_Index_a!AZ244</f>
         <v>109.4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <f>Transportation_Services_Index_a!B245</f>
         <v>43922</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="4">
+        <v>244</v>
+      </c>
+      <c r="C245" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.3333333333333</v>
+      </c>
+      <c r="D245">
         <f>Transportation_Services_Index_a!AV245</f>
         <v>125.3</v>
       </c>
-      <c r="C245">
+      <c r="E245">
         <f>Transportation_Services_Index_a!AX245</f>
         <v>13.9</v>
       </c>
-      <c r="D245">
+      <c r="F245">
         <f>Transportation_Services_Index_a!AZ245</f>
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <f>Transportation_Services_Index_a!B246</f>
         <v>43952</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="4">
+        <v>245</v>
+      </c>
+      <c r="C246" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.4166666666667</v>
+      </c>
+      <c r="D246">
         <f>Transportation_Services_Index_a!AV246</f>
         <v>127.4</v>
       </c>
-      <c r="C246">
+      <c r="E246">
         <f>Transportation_Services_Index_a!AX246</f>
         <v>17</v>
       </c>
-      <c r="D246">
+      <c r="F246">
         <f>Transportation_Services_Index_a!AZ246</f>
         <v>84.1</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <f>Transportation_Services_Index_a!B247</f>
         <v>43983</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="4">
+        <v>246</v>
+      </c>
+      <c r="C247" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.5</v>
+      </c>
+      <c r="D247">
         <f>Transportation_Services_Index_a!AV247</f>
         <v>129.5</v>
       </c>
-      <c r="C247">
+      <c r="E247">
         <f>Transportation_Services_Index_a!AX247</f>
         <v>22.6</v>
       </c>
-      <c r="D247">
+      <c r="F247">
         <f>Transportation_Services_Index_a!AZ247</f>
         <v>87.7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <f>Transportation_Services_Index_a!B248</f>
         <v>44013</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="4">
+        <v>247</v>
+      </c>
+      <c r="C248" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.5833333333333</v>
+      </c>
+      <c r="D248">
         <f>Transportation_Services_Index_a!AV248</f>
         <v>133.80000000000001</v>
       </c>
-      <c r="C248">
+      <c r="E248">
         <f>Transportation_Services_Index_a!AX248</f>
         <v>28.2</v>
       </c>
-      <c r="D248">
+      <c r="F248">
         <f>Transportation_Services_Index_a!AZ248</f>
         <v>92.6</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <f>Transportation_Services_Index_a!B249</f>
         <v>44044</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="4">
+        <v>248</v>
+      </c>
+      <c r="C249" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.6666666666667</v>
+      </c>
+      <c r="D249">
         <f>Transportation_Services_Index_a!AV249</f>
         <v>132.1</v>
       </c>
-      <c r="C249">
+      <c r="E249">
         <f>Transportation_Services_Index_a!AX249</f>
         <v>35.4</v>
       </c>
-      <c r="D249">
+      <c r="F249">
         <f>Transportation_Services_Index_a!AZ249</f>
         <v>94.7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <f>Transportation_Services_Index_a!B250</f>
         <v>44075</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="4">
+        <v>249</v>
+      </c>
+      <c r="C250" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.75</v>
+      </c>
+      <c r="D250">
         <f>Transportation_Services_Index_a!AV250</f>
         <v>132.5</v>
       </c>
-      <c r="C250">
+      <c r="E250">
         <f>Transportation_Services_Index_a!AX250</f>
         <v>43.7</v>
       </c>
-      <c r="D250">
+      <c r="F250">
         <f>Transportation_Services_Index_a!AZ250</f>
         <v>98.5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <f>Transportation_Services_Index_a!B251</f>
         <v>44105</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
+        <v>250</v>
+      </c>
+      <c r="C251" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.8333333333333</v>
+      </c>
+      <c r="D251">
         <f>Transportation_Services_Index_a!AV251</f>
         <v>133.30000000000001</v>
       </c>
-      <c r="C251">
+      <c r="E251">
         <f>Transportation_Services_Index_a!AX251</f>
         <v>41.7</v>
       </c>
-      <c r="D251">
+      <c r="F251">
         <f>Transportation_Services_Index_a!AZ251</f>
         <v>98.1</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <f>Transportation_Services_Index_a!B252</f>
         <v>44136</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="4">
+        <v>251</v>
+      </c>
+      <c r="C252" s="4">
+        <f t="shared" si="3"/>
+        <v>2020.9166666666667</v>
+      </c>
+      <c r="D252">
         <f>Transportation_Services_Index_a!AV252</f>
         <v>132.9</v>
       </c>
-      <c r="C252">
+      <c r="E252">
         <f>Transportation_Services_Index_a!AX252</f>
         <v>49.4</v>
       </c>
-      <c r="D252">
+      <c r="F252">
         <f>Transportation_Services_Index_a!AZ252</f>
         <v>101.2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <f>Transportation_Services_Index_a!B253</f>
         <v>44166</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="4">
+        <v>252</v>
+      </c>
+      <c r="C253" s="4">
+        <f t="shared" si="3"/>
+        <v>2021</v>
+      </c>
+      <c r="D253">
         <f>Transportation_Services_Index_a!AV253</f>
         <v>134.9</v>
       </c>
-      <c r="C253">
+      <c r="E253">
         <f>Transportation_Services_Index_a!AX253</f>
         <v>49.3</v>
       </c>
-      <c r="D253">
+      <c r="F253">
         <f>Transportation_Services_Index_a!AZ253</f>
         <v>102.3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <f>Transportation_Services_Index_a!B254</f>
         <v>44197</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="4">
+        <v>253</v>
+      </c>
+      <c r="C254" s="4">
+        <f t="shared" si="3"/>
+        <v>2021.0833333333333</v>
+      </c>
+      <c r="D254">
         <f>Transportation_Services_Index_a!AV254</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="C254">
+      <c r="E254">
         <f>Transportation_Services_Index_a!AX254</f>
         <v>53.7</v>
       </c>
-      <c r="D254">
+      <c r="F254">
         <f>Transportation_Services_Index_a!AZ254</f>
         <v>105.3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <f>Transportation_Services_Index_a!B255</f>
         <v>44228</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="4">
+        <v>254</v>
+      </c>
+      <c r="C255" s="4">
+        <f t="shared" si="3"/>
+        <v>2021.1666666666667</v>
+      </c>
+      <c r="D255">
         <f>Transportation_Services_Index_a!AV255</f>
         <v>133.4</v>
       </c>
-      <c r="C255">
+      <c r="E255">
         <f>Transportation_Services_Index_a!AX255</f>
         <v>57.2</v>
       </c>
-      <c r="D255">
+      <c r="F255">
         <f>Transportation_Services_Index_a!AZ255</f>
         <v>104.7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <f>Transportation_Services_Index_a!B256</f>
         <v>44256</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="4">
+        <v>255</v>
+      </c>
+      <c r="C256" s="4">
+        <f t="shared" si="3"/>
+        <v>2021.25</v>
+      </c>
+      <c r="D256">
         <f>Transportation_Services_Index_a!AV256</f>
         <v>135.9</v>
       </c>
-      <c r="C256">
+      <c r="E256">
         <f>Transportation_Services_Index_a!AX256</f>
         <v>53.4</v>
       </c>
-      <c r="D256">
+      <c r="F256">
         <f>Transportation_Services_Index_a!AZ256</f>
         <v>104.6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <f>Transportation_Services_Index_a!B257</f>
         <v>44287</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="4">
+        <v>256</v>
+      </c>
+      <c r="C257" s="4">
+        <f t="shared" si="3"/>
+        <v>2021.3333333333333</v>
+      </c>
+      <c r="D257">
         <f>Transportation_Services_Index_a!AV257</f>
         <v>137.6</v>
       </c>
-      <c r="C257">
+      <c r="E257">
         <f>Transportation_Services_Index_a!AX257</f>
         <v>60.1</v>
       </c>
-      <c r="D257">
+      <c r="F257">
         <f>Transportation_Services_Index_a!AZ257</f>
         <v>108.5</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <f>Transportation_Services_Index_a!B258</f>
         <v>44317</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="4">
+        <v>257</v>
+      </c>
+      <c r="C258" s="4">
+        <f t="shared" si="3"/>
+        <v>2021.4166666666667</v>
+      </c>
+      <c r="D258">
         <f>Transportation_Services_Index_a!AV258</f>
         <v>137.19999999999999</v>
       </c>
-      <c r="C258">
+      <c r="E258">
         <f>Transportation_Services_Index_a!AX258</f>
         <v>68.099999999999994</v>
       </c>
-      <c r="D258">
+      <c r="F258">
         <f>Transportation_Services_Index_a!AZ258</f>
         <v>111.6</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <f>Transportation_Services_Index_a!B259</f>
         <v>44348</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="4">
+        <v>258</v>
+      </c>
+      <c r="C259" s="4">
+        <f t="shared" ref="C259" si="4">2000 + B259/12</f>
+        <v>2021.5</v>
+      </c>
+      <c r="D259">
         <f>Transportation_Services_Index_a!AV259</f>
         <v>136.69999999999999</v>
       </c>
-      <c r="C259">
+      <c r="E259">
         <f>Transportation_Services_Index_a!AX259</f>
         <v>74.599999999999994</v>
       </c>
-      <c r="D259">
+      <c r="F259">
         <f>Transportation_Services_Index_a!AZ259</f>
         <v>114.1</v>
       </c>
@@ -6532,7 +8356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BN260"/>
   <sheetViews>
     <sheetView topLeftCell="AK1" workbookViewId="0"/>
